--- a/500all/speech_level/speeches_CHRG-114hhrg99727.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg99727.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="227">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>400646</t>
   </si>
   <si>
-    <t>Michael G. Fitzpatrick</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Chairman  Fitzpatrick. The Task Force to Investigate Terrorism Financing will come to order. The title of today's task force hearing is, ``Could America Do More? An Examination of U.S. Efforts to Stop the Financing of Terror.''    Without objection, the Chair is authorized to declare a recess of the task force at any time.    Also, without objection, members of the full Financial Services Committee who are not members of the task force may participate in today's hearing for the purpose of questioning the witnesses.    The Chair now recognizes himself for 3 minutes for an opening statement.    As expert witnesses in prior hearings have correctly noted, the threat of new, expansive criminal networks capable of self-funding and financing terror is a very real risk around the globe. From the Middle East to South America to the U.S. financial institutions, the threats posed by an evolving sphere of terror syndicates require a robust response both internationally and domestically. While the United States has significant tools at its disposal to degrade and inhibit terrorist financing and money laundering, it is unclear to what extent such tools have been effectively utilized.    As part of this task force's vital mission, today's hearing will examine the current state of counterterrorist financing efforts within the Federal Government to ensure that they are meeting their intended purpose and, should they not be, to identify areas which need improvement.    Furthermore, it must prepare us to evaluate the degree of cooperation between the various Federal agencies involved in countering terrorist financing and assess whether there should be more involvement between the government and the private sector to increase successful outcomes. Throughout the life of this task force, we have heard from a myriad of experienced professionals who have expressed insight from both the public and the private sectors. There have been several mentions of legislative actions Congress could take to strengthen U.S. anti-money laundering and counterterror finance measures, such as revising the Bank Secrecy Act to allow greater communication and data sharing among banks or amending beneficial ownership and control rules to ensure local and State enforcement personnel have the ability to get information pertinent to any AML/CTF investigation.    Improving the U.S. counterterrorism finance capabilities could be a simple matter of increased funding for agencies which are currently overwhelmed. Since its inception, FinCEN has taken on an increasing number of responsibilities, thanks in part to the ever-evolving field of cyber warfare, payment systems, and the inclusion of policing money services businesses. With the addition of so many responsibilities, isn't it necessary to provide additional resources to ensure effective implementation?    This is a small selection of topics I wish to discuss with our panel today. This task force has clearly sounded the alarm of the threat posed by self-financing terrorist organizations and must ensure every option is considered in the U.S. response to this danger. Today's hearing is an important part of accomplishing the mission of this group in better protecting American lives from increasingly well-funded and financed terror syndicates. I look forward to the testimony of our witnesses and the discussion between our Members.    I now recognize for an opening statement the ranking member of the task force, the gentleman from Massachusetts, Mr. Lynch.</t>
   </si>
   <si>
     <t>400249</t>
   </si>
   <si>
-    <t>Stephen F. Lynch</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr.  Lynch. Thank you, Mr. Chairman.    I also want to thank Vice Chairman Pittenger for holding today's hearing. And I want to thank our distinguished witnesses for their willingness to help us with our work on this task force. I am pleased with the efforts our task force has made since it was created earlier this year. During our first congressional hearing this past April, we confronted the diversity and scope of terrorist threats which have become more varied and localized since the September 11th attacks. Our subsequent hearings have investigated outstanding challenges related to terrorist financing, including beneficial ownership, cybersecurity threats, the nexus between crime, corruption, and terrorism, and the Iran nuclear deal and the implications that may have on our antiterrorist financing efforts.    At today's fifth and final hearing in this iteration of the task force, we will examine policy proposals that aim to help improve our Nation's efforts to combat terrorist financing. Detecting and disrupting the flow of funding to terrorist groups is essential in our fight against terrorism. And we are all very aware of the threats presented by terrorist organizations, such as the Islamic State and Hezbollah in the Middle East, and Boko Haram and Al-Shabaab in Africa. Without financial resources, these organizations will not be able to fund their attacks, pay their fighters, and otherwise support their operations. Thus, to effectively stop these groups, we must cut off their funding.    One of the ways we can do this is by supporting regional financial intelligence units (FIUs). This is why I am pleased with our witness Scott Modell's recommendations that we take full advantage of the information collected and stored by FIUs. I also agree with Mr. Modell's suggestion that we explore new ways to better analyze and use that information collected by FIUs in order to stop illicit money flows. During overseas codels, I try to make it a point to meet with regional FIUs to get updates on efforts to combat terrorist financing around the world. Witnessing the important work of FIUs around the globe demonstrates the need for the United States to continue to support international government efforts to develop robust legal, regulatory, and operational frameworks to combat terrorist financing and money laundering. It is also crucial to strengthen the relationship between FIUs, particularly with the Financial Crimes Enforcement Network, our FIU, the U.S. financial intelligence unit. This should be done in accordance with the landmark recommendations issued by the Financial Action Task Force, which is an intergovernmental body consisting of over 30 member jurisdictions dedicated to strengthening worldwide antiterrorist financing and anti-money laundering policies. I look forward to hearing from our witnesses so that we can examine these issues further. I yield back the balance of my time.</t>
   </si>
   <si>
@@ -73,9 +67,6 @@
     <t>412551</t>
   </si>
   <si>
-    <t>Robert Pittenger</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr.  Pittenger. Thank you, Mr. Chairman.    And thank you, Mr. Ranking Member, for your hard work and dedication to these issues throughout the efforts of the task force. Over the past five hearings, briefings, and roundtables, we have gained important insight into the threats facing our Nation, how they are funded, and the many obstacles we face in intercepting those funds.    Just last week, the chairman, my friend, Mr. Meeks, and myself had the chance to meet with officials in Europe and the Middle East to further understand these threats and those obstacles. The theme of my discussions was Iran and the $100 billion it will receive as part of this Administration's deal. Preventing those dollars from funding terror should be a major priority. The delegation visited FATF in Paris, Turkey, Qatar, and Kuwait. We got a chance to see firsthand the challenges that they face.    While I oppose this Iran deal, it should be a diplomatic priority for this Administration to reach out to those countries and others in the region to ensure that they utilize their resources, capabilities, and incentives to fully enforce their counterterrorism finance laws within their sovereign borders. But this hearing is on the challenges we face domestically. Over these past few months, we have often heard about information sharing. And increasing the information we have and use will give us a better opportunity to stop the flow of funds to terrorists. Our hearing today will focus on exactly that, the steps we can take to better ensure that we are cutting the funding to terrorists, and protecting the security of America against our enemies.    I look forward to the testimony from the witnesses before us and the opportunity to strengthen our efforts. And I look forward to working with my colleagues on this task force in a bipartisan manner to implement the ideas before us today.    Thank you, Mr. Chairman. I yield back.</t>
   </si>
   <si>
@@ -85,9 +76,6 @@
     <t>412509</t>
   </si>
   <si>
-    <t>Kyrsten Sinema</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms.  Sinema. Thank you, Chairman Fitzpatrick, and Ranking Member Lynch. The title of today's hearing is, ``Could America Do More? An Examination of U.S. Efforts to Stop the Financing of Terror.'' The answer is clearly yes. I appreciate our witnesses' testimony and I agree that the Federal Government must change its approach and mindset to counter the financing of terrorism. My focus throughout these hearings has been on countering ISIL funding. ISIL fights locally and inspires terror internationally. But it is different from other transnational terror organizations. Its economic engagement with the outside world is limited. And it derives most of its funds from areas near or under its control.    This task force has received testimony that the internal sale of oil is a significant source of income. But it is the taxation, extortion, and theft throughout the entire supply chain that funds the organization. ISIL levies taxes and fees at every stage of production, at key roadway crossings, ports of entry, and areas under its control. It replicates this model in other markets, like banking, where it robs and then operates local bank branches, gaining money through the taxation or extortion of the population and businesses it controls. Given the closed nature of the majority of ISIL's revenue streams, how can we do more to counter ISIL's revenue sources? I look forward to hearing more from our witnesses today about how we should restructure our counterfinance operations so we have the flexibility to effectively counter ISIL's largely domestic revenue streams and fight other terrorist organizations with different funding models.    Thank you, Mr. Chairman. I yield back.</t>
   </si>
   <si>
@@ -97,9 +85,6 @@
     <t>412570</t>
   </si>
   <si>
-    <t>Keith J. Rothfus</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr.  Rothfus. Thank you, Mr. Chairman. It is my pleasure to welcome and to introduce Mr. Dan Larkin from my hometown of Pittsburgh, Pennsylvania. Mr. Larkin served in the FBI for more than 24 years and established the first cyber fusion unit for the Federal Government, enabling government and law enforcement to effectively co-locate with subject matter experts from industry and academia. This unit substantially enhances resource sharing to the mutual benefit of all participants. Private sector partners include numerous financial services organizations, telecommunications, technology, and e-commerce. Law enforcement partners include a growing list of Federal, State, and local agencies, as well as international investigators from more than a dozen countries.    Mr. Larkin also developed one of the first high-tech crime task forces in the United States. This unique collaboration of assets also led to the development of the first national public-private alliance to identify and combat cybercrime. It is known as the National Cyber Forensics and Training Alliance. Mr. Larkin also co-authored the FBI National Cybercrime Strategy in 2002.    Again, it is my pleasure to welcome Mr. Larkin here today. And I am sure that we will all benefit from his experience and expertise on these important issues.</t>
   </si>
   <si>
@@ -109,36 +94,24 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Modell</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr.  Modell. Chairman Fitzpatrick, Ranking Member Lynch, and members of the task force, good morning. Thank you for the opportunity to testify today. Terrorism financing has become one of the most pressing national security challenges. Yet, in my opinion, the plans, programs, and practitioners are falling short of where they need to be. My contention today is simple: many in the U.S. Government know just enough to be dangerous about finance or transnational organized crime but not enough to significantly impact crime or terror organizations.    For the past decade or so, the U.S. Government has attempted to develop a professional cadre of law enforcement agents, civilian and military intelligence officers, analysts, and others to pursue a new field of operations which has been called counter threat finance. Their purpose was to effectively counter the financial and logistical depth and sustain the capacity of our adversaries who are engaged in irregular warfare. It was thought that hitting the finances, financiers, and illicit networks would become an important means of warfare. But progress has been limited.    Looking ahead, it would serve us well to take an agency-by-agency account of what we collectively know about terrorism finance, an audit of each agency's CTF track record and current trajectory, and ways to either add or pare down their respective roles and missions as part of a whole-of-government approach. This should not seek to bring all agencies together all the time. Threat mitigation working groups or interagency task forces and the like are usually stood up with the best of intentions and may last for a while but often end with poor results.    A few of my recommendations today include the following: Number one, we need a detailed and comprehensive starting point for ourselves and for our liaison partners. We need to agree on how to better prosecute a results-dependent intelligence and law enforcement campaign, not just a series of one-off strikes, arrests, or asset recruitments. The way to begin is by building a CTF order of battle that maps key networks on a global scale, along with a tactically flexible and transnational plan of attack.    Number two, I say we need to take the gloves off. I think that intelligence collection, law enforcement actions, and even covert action must take place inside some of the worst financial havens and terrorist-enabling states such as Kuwait, Qatar, and Lebanon. Too many U.S. missions around the world maintain an ultra-cautious posture when it comes to investigations, arrests, and other operational activities inside countries where financial terrorism targets are active.    A prime example is Hezbollah. We too often avoid operations against Hezbollah's illicit financial apparatus inside Lebanon because we don't want to destabilize the Lebanese banking system or embarrass corrupt Lebanese government officials who work alongside Hezbollah.    Number three, we need to develop career professionals who better understand finance and transnational organized crime. To attack prime terror pipelines that run through the international trade and banking system, we need to have more officers who have hands-on expertise to be able to think creatively in this space in order to understand the constantly evolving illicit trade craft and sophistication employed by truly transnational organizations. This requires basic and advanced training in international finance banking and trade, of which there is not nearly enough today.    Number four, I think we need to rebuild the operational capacity of our Treasury attaches, start by taking complete after-action account of OFAC designations on key target sets, starting with Iran. If you want to put Treasury on a war footing, it needs to better understand precisely how our sanctions designations and so forth have affected banks, investment companies, exchange houses, and other financial nodes of terrorist networks, how those entities and individuals have countered, and the degrees to which they have been disrupted, dismantled, or destroyed.    Stronger Treasury force should be engaged in up-close and personal investigations of banks, hawalas, exchange houses, and others that continue to operate even after being designated. The last two things I would suggest are, one, information operations, usually reserved for the military, but it is a capability that I think could be used effectively in the CTF realm. To magnify the impact of CTF law enforcement operations, information operations should use U.S. and local media outlets to expose terrorists and their supporters, educate publics that are largely unaware of how terrorists move money through corrupt financial systems, and warn them of the consequences of abetting terrorists. Information operations can also be used to positively bolster the reputation of foreign police, intel and military efforts, or to negatively embarrass governments, companies, and individual collaborators.    Finally, I would say the Rewards for Justice Program--in my experience, money is probably the single biggest incentive to sources, facilitators, and testifiers who assist U.S. law enforcement investigations and operations or intelligence operations, for that matter. I think we need to think about how to use Rewards for Justice in a much more creative way as a tool to motivate not only individual sources, but also our foreign liaison partners. A coalition of well-intentioned states, which I think we have, that is based on a common aversion to transnational organized crime is good, but it will only go so far. I think we will have a lot more success when it is linked to potential financial reward. Thank you.    [The prepared statement of Mr. Modell can be found on page 52 of the appendix.]</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman  Fitzpatrick. Thank you, Mr. Modell.    Dr. Shelley, you are now recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Shelley</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms.  Shelley. Thank you. It is a great honor to be here and address this task force. I think we need to broaden our concept away from terrorist financing and focus on the concept of the business of terrorism. Why do I believe this? Terrorism financing looks at what has been done and is being done to fund a terrorist organization. It is reactive, rather than proactive. But terrorist groups function like multinational businesses and are always looking for future opportunities to stay in business. Therefore, the business of terrorism examines more broadly the way terrorists generate funds and solicit personnel for future activity, just as we have seen with ISIS and its sophisticated recruiting schemes. The business of terrorism looks at marketing strategies, targets of opportunity, and other methods that they use. And terrorist financing fails to address the fact that terrorists are acting like businesspeople and need to be countered as business competitors. That is why it is very useful to partner much more with the business community, as I will be talking about.    Almost all terrorism these days is funded by crime, although much of transnational crime remains independent of terrorism. Therefore, we need to stop stovepiping the separate responses to crime and terrorism and to analyze them together and have countermeasures that work in this way. This is being done successfully by the New York and Los Angeles Police Departments, integrating local efforts with Federal efforts. And it needs to be expanded to other jurisdictions. We need to focus more on the drug trade and concentrate not only on the drug trade but concentrate on the smaller scale illicit trade that supports so much terrorism in the United States, Europe, and North Africa. One of the Kouachi brothers responsible for the Charlie Hebdo massacre in Paris traded in counterfeit Nikes and cigarettes. Similar crime is found as crucial support to terrorists by NYPD.    Terrorists use corruption to execute their business activities just as organized crime always has. Therefore, we need to integrate analyses of corruption into crime and terror analyses. Public-private partnerships are key in addressing the business of terrorism. Businesses have insights on how to combat business competitors. And these insights need to be shared with governmental personnel who have less experience with business. And I also give illustrations in my written testimony of concrete examples of successes. And I am sure we will hear more about this in the cyber area. We can hear about this in the energy sector.    And we need to collect intelligence on terrorist financing derived from diverted and counterfeit examples of commodities. But I should also add that I think we need to also be focusing on money laundering by terrorist groups into the real estate sector. We have a hole in the PATRIOT Act in reference to real estate. And I believe it is being exploited not just generally but even in the Washington, D.C. area, talking to real estate agents. So I think that this is an area that needs much more focus.    What do we need to be doing? We need to be focusing on terrorist business rather than just financing, looking at trade and products, targets of opportunity, use of technology, as we are going to hear, and recruitment of personnel. We need to establish working and advisory groups with sectors of the business community whose products are likely targets of terrorists. I know there have been good working relationships with the technology sector, but not as much with those in manufacturing goods, pharmaceuticals, cigarettes, and oil, that need to be integrated into this. As I mentioned previously, we need to be using terrorists or antiterrorist models based on LAPD and NYPD. And we need to develop more controls over crypto currencies such as bitcoin and many other emerging Web-based currencies that are hard to trace and are key to the financing and the trade of terrorists that is going on both in the real and the virtual world. Thank you.    [The prepared statement of Dr. Shelley can be found on page 66 of the appendix.]</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman  Fitzpatrick. Thank you, Dr. Shelley.    Mr. Larkin, you are recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Larkin</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr.  Larkin. Good morning, Chairman Fitzpatrick, Ranking Member Lynch, and members of the task force. I appear today as a former FBI Unit Chief and the founder of the National Cyber Forensics and Training Alliance, better known as the NCFTA. Thank you for the opportunity to share some personal experiences I have had in my 24-plus years with the FBI in developing models of better cyber threat collaboration between the public and private sectors. I understand the task force is interested in functional models that might foster additional public-private partnerships to assist in the fight against international money laundering and terrorist financing. I believe the NCFTA serves as an excellent model for such collaboration.    Successful public-private collaborations are essential in combatting cyber threats. The vast majority of computer networks belong to the private sector. And, as a result, most of the intelligence on those threats resides with the private sector as well. Effective public-private collaboration also depends on trust amongst the parties, which has to be earned, as well as strong privacy protections and transparency to ensure the trust of the public.    The genesis of the successful NCFTA model actually began in the 1990s after I was reassigned from FBI headquarters to the Pittsburgh division of the FBI. In the late 1990s, it was apparent that business was rapidly moving to the Internet and, not surprisingly, so were the criminals. FBI Pittsburgh had a long history of working multiagency task forces to address a variety of criminal activity. And at this time, the idea was developed to launch a new, high-tech, cyber task force. I initially gained support of the law enforcement community for this task force and also suggested that we include representatives from the CERT Coordination Center, which was established in the 1980s at Carnegie Mellon University in Pittsburgh. Representatives from that organization at that time had become experts in cyber threats. And they were essentially in our backyard.    Ultimately, the relationship between law enforcement and the CERT Coordination Center would prove instrumental to the formation of the NCFTA. But first, we had to overcome some reluctance on the part of CERT Coordination Center members to work with the FBI and other law enforcement. This was largely due to the concerns that information shared with law enforcement regarding potential vulnerabilities might become public. To overcome these concerns, I suggested that we detail an FBI cyber agent to the CERT Coordination Center to essentially serve as a fly on the wall and to offer support for the CERT Coordination Center and their clients. This program demonstrated that the FBI could actually work with the CERT Coordination Center members and help them more fully understand the scope of the threats they are facing and that the CERT team and its clients could actually work cooperatively work with the FBI without negative consequences. This immersion program also encouraged individuals to get to know each other, gain a better understanding of resources that might be shared, and to collaborate.    This environment helped to develop trusted relationships among participants and became an early principle of the NCFTA model. This early success of this immersion program led to a focus group meeting in 1988 with approximately 30 cross-sector organizations that came together to consider embedding resources in a common location in their common fight against international cyber threats. Out of this focus group, a White Paper was developed which summarized the core objectives of a new public-private alliance which eventually became the NCFTA.    These objectives include the continuation of a neutral, meet-in-the-middle environment to foster public-private collaboration, including the sharing of knowledge and expertise among public and private subject matter experts; the identification of joint initiative based primarily on a consensus view of the private sector on priority threats; use of nondisclosure agreements among parties to protect confidential and proprietary information; and training programs to help ensure common understanding of permissible private sector involvement in information sharing, as well as best practices for identifying and combatting cyber threats.    As a result of these efforts and the work of numerous individuals, the NCFTA was officially incorporated in 2002 as a 501(c)(3) nonprofit. Since that time, numerous investigative initiatives have been developed through the NCFTA with cross-sector partners spawning hundreds of investigations, both domestically and foreign. A common thread through many of these investigations has been international organized crime, money laundering, and, in some cases, ties to terrorist financing.    Today, numerous private sector organizations imbed resources at the NCFTA, alongside a growing pool of domestic and international law enforcement. Hundreds of additional subject matter experts connect to the NCFTA through various realtime communications channels.    So, what are some of the key takeaways from the NCFTA both in combatting cybercrime and considering future public-private partnerships? Significant global threats may initially manifest themselves only to the private sector. Their true significance and scope, however, may not be realized until those dots are fully connected through resources like those at the NCFTA. Cybercriminals will enlist many different and creative schemes to generate funds. And efforts to respond must also continue to evolve with the same or more advanced creativity.    The NCFTA leverages existing resources in giving them a better environment in which to perform. From this perspective, it is a very efficient workforce multiplier. Relationships are vital to making the collaboration work. And they can be fragile. Making it personal, knowing your partner's perspectives and needs is essential. And the human capital development aspects of the NCFTA are substantial. Thank you again for the opportunity to address the task force. I am pleased to respond to any questions at the appropriate time.    [The prepared statement of Mr. Larkin can be found on page 44 of the appendix.]</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman  Fitzpatrick. Thank you.    And, finally, Ms. Rosenberg, you are recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Rosenberg</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms.  Rosenberg. Thank you, Chairman Fitzpatrick, Vice Chairman Pittenger, Ranking Member Lynch, and distinguished members of this task force. I appreciate the opportunity to testify before you today on U.S. efforts to stop the financing of terrorism. The proliferation of terrorist threats and the growing diffusion and autonomy of terrorists cells internationally demands a whole-of-government response. Stemming the flow of terrorist financing is critical to this effort. The most important defenses against terrorist financing are rigorous Know Your Customer (KYC) and customer due diligence (CDD) practices. With robust KYC and CDD measures, financial institutions can detect and freeze terrorist-linked financial flows and suspicious activity.    Financial policymakers, regulators, and law enforcement officials, of course, have responsibility for ensuring that requirements for such safeguards in the U.S. financial system are strong and that they are upheld. They use the suspicious activity reporting by financial institutions, often produced as a result of KYC and CDD practices along with intelligence analysis, to stem terrorist financing and activity. This may occur in the form of Treasury Department sanctions designations, legal enforcement actions against terrorists, and Defense Department targeting of terrorist threats abroad. To close a critical gap in U.S. efforts to combat terrorist financing, policymakers should advance new requirements for tougher CDD practices and disclosure of beneficial ownership information for legal entities.    The Treasury Department is working on a new CDD rule, as I am sure many of you are aware. And the 2016 Federal budget includes new requirements for beneficial ownership information gathering and sharing tied to the corporate formation process. These initiatives should be swiftly and fully advanced as crucial measures to improve sanctions enforcement and combat criminal and terrorist activity.    Additional steps that would further strengthen financial sector resiliency against terrorist financing threats include new measures to extend anti-money laundering and countering the financing of terrorism or CFT requirements to unregulated financial entities, including investment advisers and real estate agents, as was just mentioned, and, as well, to new digital currencies. Congress should take the leading role in setting new policy in these areas.    To address another serious deficiency in U.S. CFT efforts, policymakers should work to remove barriers that prevent the flow of customer and beneficial ownership data across national boundaries. Such barriers make it difficult for global financial institutions to identify and track illicit finance across the jurisdictions in which they operate. These restrictions also make it difficult for government officials to identify and target sanctions evasion or criminal activity to connect the dots. And the restrictions also hinder efforts to identify new nodes in terrorist networks and links between terrorist groups and criminal enterprises or their criminal activities.    To be sure, sharing information related to terrorism threats presents civil liberties, competition, and financial inclusion challenges. Nevertheless, to facilitate effective law enforcement and successfully combat terrorist financing, policymakers must urgently contemplate new strategies for facilitating the flow of financial data across national borders. A good policy goal would be to significantly ease the transfer of beneficial ownership data between banks with correspondent relationships that are in different jurisdictions.    To achieve this, Treasury Department officials and financial services policy leaders in Congress should engage foreign counterparts, advocating for legislative changes, where appropriate, to allow such information sharing. They can also explore the idea of safe harbor frameworks between the United States and foreign financial jurisdictions to create mechanisms, including appropriate safeguards, for cross-border financial data flows. As terrorist threats are global, we rely significantly on the strength of foreign financial systems and the will of our foreign financial regulatory and law enforcement counterparts to combat terrorist financing. Investing in partner capacity building to combat this threat is directly beneficial to our own national interests. Congress should expand current Federal efforts to help foreign partners strengthen KYC and CDD requirements in their own jurisdictions, as well as laws that criminalize the financing of terrorism or support for terrorism. Allocating funds in the current budget to the new counterterrorism partnership fund will help advance these efforts.    Finally, as an additional measure to combat terrorist financing, legislators should set the tone for ensuring that our government aggressively exposes and targets terrorist financing with financial sanctions. This involves careful oversight of the Treasury and State Departments, which have the responsibility for implementing sanctions and, crucially, the appropriation of sufficient resources to these agencies and to the intelligence community to fulfill this important mission. Thank you for the opportunity to testify today. I look forward to answering any questions you may have for me.    [The prepared statement of Ms. Rosenberg can be found on page 57 of the appendix.]</t>
   </si>
   <si>
@@ -313,9 +286,6 @@
     <t>400271</t>
   </si>
   <si>
-    <t>Gregory W. Meeks</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr.  Meeks. Thank you, Mr. Chairman.    Let me first thank you, Mr. Chairman, for leading a great trip where we did a lot of investigations in talking to individuals, whether it was from France, Turkey, Qatar, or Kuwait. And I know we tried to get into Lebanon, but unfortunately, we couldn't get in there. But we had a good conversation with its prime minister. So I very much appreciate the trip and I gained a lot of knowledge on the travel talking about this very subject matter. I want to first thank you for that. It was very good.    And given that, because one of the things that seemed clear to me on this trip is that the group that is a threat to everybody, whether it is the United States, whether it is Israel, whether it is even Iran and Russia and France, is this group called ISIL or Daesh. And everybody seems to be very much concerned about how they were being funded and how the dollars would go through.    So, to that, let me ask, first, Mr. Modell, because I believe in your writing, you discussed how intelligence collection for law enforcement and covert action needs to take place within countries that, using your words, are the most financial safe havens and terrorism enablers. Now, I was really taken aback to some degree when we were in Kuwait and Qatar, particularly, because they seemed to be very forward with what they were trying to do and what they could not do, or had not been done. A lot of that had to deal with some of the cultural questions, like a lot of people utilize cash as opposed to credit cards or anything else. Cash is harder to trace, et cetera, and a lot of them were making new laws with regards to the charity law because money was being funneled through that. But there also seem to be some concerns culturally, because culturally they bank differently than, say, Westerners have, different things, and that nature.    So my question to you is, how would such actions take place in these areas where they have the potential of destabilizing? When I talk about the Kuwait, for example, the June 26th date, for the first time, they had their own bombing at a mosque. They seem to be very focused on doing what they need to do to try to be very helpful here, but at the same time, they said, we have to move things to give confidence to our people. So how do you balance, what do you see the balance of the two, so that we could make sure we don't destabilize other regions of the area as we try to make sure we prevent them from passing dollars through?</t>
   </si>
   <si>
@@ -334,9 +304,6 @@
     <t>412411</t>
   </si>
   <si>
-    <t>Dennis A. Ross</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr.  Ross. Thank you, Mr. Chairman. Mr. Chairman, it is my understanding that this is the last meeting of this task force. Is that correct?</t>
   </si>
   <si>
@@ -382,9 +349,6 @@
     <t>400653</t>
   </si>
   <si>
-    <t>Al Green</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr.  Green. Thank you, Mr. Chairman. I would echo the commentary made by my colleague with reference to the benefits that we have derived from these various hearings, and I salute you and my ranking member for the way you have worked together to help facilitate the free flow of information. Thank you very much.    With reference to information sharing, there are arguments made with reference to technology being a problem, and then there are other arguments that are made with reference to organizational inertia, infrastructure, and culture.    How much of the fusion of information between various agencies is impeded by culture, organizational inertia, and structure within the various entities that should be conversing with each other?    Ms. Shelley, you ventured into this a little bit earlier. Would you care to respond?</t>
   </si>
   <si>
@@ -421,9 +385,6 @@
     <t>412609</t>
   </si>
   <si>
-    <t>J. French Hill</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr.  Hill. Thank you, Mr. Chairman.    And thank you, Mr. Ranking Member, for your excellent stewardship of this task force.    Dr. Shelley, I would like to begin with you and talk a little bit about this real estate exception to the money laundering statutes that you have referenced. Presuming a buyer has a bank and withdraws money from that bank, and presuming a seller has a bank and deposits the proceeds into that bank, describe kind of more specifically the gap that you have identified that is being exploited. And you even referenced right here in the booming real estate market of the beltway. So could you go into a little bit more detail about that?</t>
   </si>
   <si>
@@ -463,9 +424,6 @@
     <t>412578</t>
   </si>
   <si>
-    <t>Roger Williams</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr.  Williams. Thank you, Mr. Chairman. I, too, would like to thank you and the ranking member for your leadership on this committee.    Over the last few months, this task force has explored an array of topics and received in-depth testimony from witnesses throughout the government and the private sector that has helped members of this task force better understand the challenges we face in dealing with terrorism financing. These challenges are real for me personally--sometimes hit too close to home--because I am a car dealer. Now, I want to start by discussing the topic of money laundering with the witnesses today. We talked a lot about that today, especially the laundering that exists here in the United States. From some of your previous testimony and also earlier when we had other folks here, we heard about legitimate businesses knowingly or unknowingly supporting terrorist organizations who launder money right here in our own backyard.    My first question to you, Ms. Rosenberg, is, in your view, what are the key terrorist financing money laundering threats facing the U.S. international financial systems to date? You have talked a little bit about that. Could you repeat it?</t>
   </si>
   <si>
@@ -502,9 +460,6 @@
     <t>400371</t>
   </si>
   <si>
-    <t>Brad Sherman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr.  Sherman. Thank you.    Certainly, one source of terrorism is Iran. We are entering into this deal in which we are supposed to waive the sanctions that were enacted to deal with their nuclear program. But in doing so, we are going to be waiving the sanctions that were designed to discourage them from engaging in terrorism.    The most specific example of this is the Iran Sanctions Act, which in its terms, which Congress declared we had three major reasons, only one of which was weapons of mass destruction, and weapons of mass destruction includes nuclear missile and biological and chemical concerns. I will strike ``missile'' from that because the structure was the weapons, not the delivery systems. But still, nuclear was one-third of one-third of Congress' announced reason for adopting the Iran Sanctions Act. Under this deal, it is going to be waived.    What I am concerned with is especially designated nationals list, which is the no-go list for international finance. And you have a lot of countries that are on the list because of their involvement in nuclear activities that we never bothered to put on the list because of their involvement in terrorist activities, for example, Bank Melli, which has been involved with Palestinian Islamic jihad, Hezbollah, Quds force, et cetera.    Dr. Shelley, are you confident that the United States will put Bank Melli on the terrorist list, or are we going to ignore their support for terrorism in the future because they used to be involved in proliferation activities?</t>
   </si>
   <si>
@@ -532,9 +487,6 @@
     <t>412541</t>
   </si>
   <si>
-    <t>Andy Barr</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr.  Barr. Thank you, Mr. Chairman, and Chairman Fitzpatrick, Vice Chairman Pittenger, and Ranking Member Lynch. I also want to join my colleagues in complimenting you all for your leadership in convening this task force and giving the testimony that we have heard here today and the other hearings before this task force. We obviously have many gaps and deficiencies in the way in which our country counters terrorism financing. And I look forward to working with each of you in developing perhaps a legislative package that adopts some of the recommendations made here today and in--from the other witnesses we have heard from in other hearings.    With respect to the proposed Iran nuclear deal, the joint comprehensive plan of action, I wanted to ask Mr. Modell a question about the impact that a finalized deal would have on the existing deficiencies that you testified about. In particular, you testified that terrorism finance has become one of our most pressing national security challenges, yet the plans, programs, and practitioners are falling far short of where they need to be. My question to you, Mr. Modell, is will we fall further behind if this deal is finalized? And, secondly, is there a way to quantify how much further behind will we be if this deal is finalized?    In other words, how much additional pressure will this place on the efforts to counter the financing of terrorism?</t>
   </si>
   <si>
@@ -562,9 +514,6 @@
     <t>412215</t>
   </si>
   <si>
-    <t>Keith Ellison</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr.  Ellison. Thank you, Mr. Chairman, and thank you, Mr. Ranking Member, for this hearing. I also would like to thank all of our panelists who have been so responsive and helpful to our understanding.    My first question is to Ms. Rosenberg. Ms. Rosenberg, on this Iran deal, you did publish an article, for which I want to commend you, and I thought it was well-written. One of the things you said is a successful agreement is by far the best way to reduce Iran's nuclear threat, but for any deal to work, Tehran needs to know that if it cheats, economic pain will turn in full force.    If you believe the deal, what we do have--there is a deal, there is a fair chance that there will remain one, how should we move forward given that we are going to have to monitor whatever--and have--provide oversight to how things are going? If we assume that the people who want to kill the deal are not successful, and that is a fair assumption at this point, what is your assessment on the day after, and what we should be doing?</t>
   </si>
   <si>
@@ -598,9 +547,6 @@
     <t>412399</t>
   </si>
   <si>
-    <t>David Schweikert</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr.  Schweikert. Thank you, Mr. Chairman.    Dr. Shelley, first, I want to compliment you, because at least in your testimony, both written and what you have said, you have come closer to anyone in this committee on my fixation, my concern. We seem to be having a discussion that somehow the terrorism financing world is out there using the SWIFT system, and we are seeing the wire transfers and not understanding the scale of the distributive opportunities. When their story is coming from border patrol agents of money moving in diamonds and other types of products, when we are seeing stories of completely informal financing mechanisms, when we are seeing stories that it is money laundering for hire. So today you may be a terrorist; tomorrow you may be a narcotrafficker; next week you may be someone engaging in counterfeit products; and the week after that it is the folks who stole data who are trying to monetize it. And it is becoming a profession out there with its own accountants, with its own systems.    Dr. Shelley, how do I break my brothers and sisters and those in the bureaucracy out of the mindset that we can do this as a Treasury banking regulator and understanding the distributive world that is around us and the perverse professionalism that seems to be going into the movement of bad actors' cash?</t>
   </si>
   <si>
@@ -626,9 +572,6 @@
   </si>
   <si>
     <t>412461</t>
-  </si>
-  <si>
-    <t>Steve Stivers</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr.  Stivers. Thank you, Mr. Chairman.    I would like to commend the chairman for his leadership of this task force and the ranking member as well for your hard work here. And it is unfortunate that this is our last meeting of the task force because I think there is a lot more work to be done.    Ms. Rosenberg, it has already kind of come up a little bit. Mr. Ross talked about this a little bit, but the fact that the Iran deal could give up to $50 billion to Iran immediately, which could then be diverted to terrorism, does that, for you, give us a reason to maybe continue something like this task force, to continue to monitor what is going on out is there?</t>
@@ -1150,11 +1093,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1174,13 +1115,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1202,11 +1141,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1226,13 +1163,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1254,11 +1189,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1278,13 +1211,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1306,11 +1237,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1330,13 +1259,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1358,11 +1285,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1382,13 +1307,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1410,11 +1333,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1434,13 +1355,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" t="s">
-        <v>34</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1462,11 +1381,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1486,13 +1403,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
         <v>30</v>
-      </c>
-      <c r="G15" t="s">
-        <v>37</v>
-      </c>
-      <c r="H15" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1514,11 +1429,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1538,13 +1451,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
-      </c>
-      <c r="G17" t="s">
-        <v>40</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1566,11 +1477,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1590,13 +1499,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>30</v>
-      </c>
-      <c r="G19" t="s">
-        <v>37</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1618,11 +1525,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1642,13 +1547,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1670,11 +1573,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1694,13 +1595,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>30</v>
-      </c>
-      <c r="G23" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1722,11 +1621,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1746,13 +1643,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>30</v>
-      </c>
-      <c r="G25" t="s">
-        <v>34</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1774,11 +1669,9 @@
       <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1798,13 +1691,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>30</v>
-      </c>
-      <c r="G27" t="s">
-        <v>37</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1826,11 +1717,9 @@
       <c r="F28" t="s">
         <v>11</v>
       </c>
-      <c r="G28" t="s">
-        <v>12</v>
-      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1850,13 +1739,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>30</v>
-      </c>
-      <c r="G29" t="s">
-        <v>40</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1878,11 +1765,9 @@
       <c r="F30" t="s">
         <v>11</v>
       </c>
-      <c r="G30" t="s">
-        <v>12</v>
-      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1902,13 +1787,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>30</v>
-      </c>
-      <c r="G31" t="s">
-        <v>40</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1930,11 +1813,9 @@
       <c r="F32" t="s">
         <v>11</v>
       </c>
-      <c r="G32" t="s">
-        <v>12</v>
-      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1954,13 +1835,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1980,13 +1859,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>30</v>
-      </c>
-      <c r="G34" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2006,13 +1883,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2032,13 +1907,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>30</v>
-      </c>
-      <c r="G36" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2058,13 +1931,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>14</v>
-      </c>
-      <c r="G37" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2084,13 +1955,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>30</v>
-      </c>
-      <c r="G38" t="s">
-        <v>34</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2110,13 +1979,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2136,13 +2003,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>30</v>
-      </c>
-      <c r="G40" t="s">
-        <v>37</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2162,13 +2027,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2188,13 +2051,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>30</v>
-      </c>
-      <c r="G42" t="s">
-        <v>40</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2214,13 +2075,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2242,11 +2101,9 @@
       <c r="F44" t="s">
         <v>11</v>
       </c>
-      <c r="G44" t="s">
-        <v>12</v>
-      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2266,13 +2123,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>18</v>
-      </c>
-      <c r="G45" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2292,13 +2147,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>30</v>
-      </c>
-      <c r="G46" t="s">
-        <v>40</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2318,13 +2171,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>18</v>
-      </c>
-      <c r="G47" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2344,13 +2195,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>30</v>
-      </c>
-      <c r="G48" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2370,13 +2219,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>18</v>
-      </c>
-      <c r="G49" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2396,13 +2243,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>30</v>
-      </c>
-      <c r="G50" t="s">
-        <v>34</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2422,13 +2267,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>18</v>
-      </c>
-      <c r="G51" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2448,13 +2291,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>30</v>
-      </c>
-      <c r="G52" t="s">
-        <v>37</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2474,13 +2315,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>18</v>
-      </c>
-      <c r="G53" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2500,13 +2339,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>30</v>
-      </c>
-      <c r="G54" t="s">
-        <v>40</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2526,13 +2363,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>18</v>
-      </c>
-      <c r="G55" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2554,11 +2389,9 @@
       <c r="F56" t="s">
         <v>11</v>
       </c>
-      <c r="G56" t="s">
-        <v>12</v>
-      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2578,13 +2411,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>30</v>
-      </c>
-      <c r="G57" t="s">
-        <v>34</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2604,13 +2435,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>30</v>
-      </c>
-      <c r="G58" t="s">
-        <v>34</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2632,11 +2461,9 @@
       <c r="F59" t="s">
         <v>11</v>
       </c>
-      <c r="G59" t="s">
-        <v>12</v>
-      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2656,13 +2483,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>26</v>
-      </c>
-      <c r="G60" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2682,13 +2507,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>30</v>
-      </c>
-      <c r="G61" t="s">
-        <v>37</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2708,13 +2531,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>26</v>
-      </c>
-      <c r="G62" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2734,13 +2555,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>30</v>
-      </c>
-      <c r="G63" t="s">
-        <v>37</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2760,13 +2579,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>26</v>
-      </c>
-      <c r="G64" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2786,13 +2603,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>30</v>
-      </c>
-      <c r="G65" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2812,13 +2627,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>30</v>
-      </c>
-      <c r="G66" t="s">
-        <v>40</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2838,13 +2651,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>26</v>
-      </c>
-      <c r="G67" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2864,13 +2675,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>30</v>
-      </c>
-      <c r="G68" t="s">
-        <v>40</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2890,13 +2699,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>26</v>
-      </c>
-      <c r="G69" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2916,13 +2723,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>30</v>
-      </c>
-      <c r="G70" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2942,13 +2747,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>26</v>
-      </c>
-      <c r="G71" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2968,13 +2771,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>30</v>
-      </c>
-      <c r="G72" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2996,11 +2797,9 @@
       <c r="F73" t="s">
         <v>11</v>
       </c>
-      <c r="G73" t="s">
-        <v>12</v>
-      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3020,13 +2819,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>98</v>
-      </c>
-      <c r="G74" t="s">
-        <v>99</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3046,13 +2843,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>30</v>
-      </c>
-      <c r="G75" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3072,13 +2867,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>98</v>
-      </c>
-      <c r="G76" t="s">
-        <v>99</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3098,13 +2891,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>30</v>
-      </c>
-      <c r="G77" t="s">
-        <v>37</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3126,11 +2917,9 @@
       <c r="F78" t="s">
         <v>11</v>
       </c>
-      <c r="G78" t="s">
-        <v>12</v>
-      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3150,13 +2939,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>105</v>
-      </c>
-      <c r="G79" t="s">
-        <v>106</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3178,11 +2965,9 @@
       <c r="F80" t="s">
         <v>11</v>
       </c>
-      <c r="G80" t="s">
-        <v>12</v>
-      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3202,13 +2987,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>105</v>
-      </c>
-      <c r="G81" t="s">
-        <v>106</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3230,11 +3013,9 @@
       <c r="F82" t="s">
         <v>11</v>
       </c>
-      <c r="G82" t="s">
-        <v>12</v>
-      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3254,13 +3035,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>105</v>
-      </c>
-      <c r="G83" t="s">
-        <v>106</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3280,13 +3059,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>30</v>
-      </c>
-      <c r="G84" t="s">
-        <v>40</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3306,13 +3083,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>105</v>
-      </c>
-      <c r="G85" t="s">
-        <v>106</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3332,13 +3107,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>30</v>
-      </c>
-      <c r="G86" t="s">
-        <v>40</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3358,13 +3131,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>105</v>
-      </c>
-      <c r="G87" t="s">
-        <v>106</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3384,13 +3155,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>30</v>
-      </c>
-      <c r="G88" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3410,13 +3179,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>105</v>
-      </c>
-      <c r="G89" t="s">
+        <v>95</v>
+      </c>
+      <c r="G89" t="s"/>
+      <c r="H89" t="s">
         <v>106</v>
-      </c>
-      <c r="H89" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3436,13 +3203,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>30</v>
-      </c>
-      <c r="G90" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3462,13 +3227,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>105</v>
-      </c>
-      <c r="G91" t="s">
-        <v>106</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3490,11 +3253,9 @@
       <c r="F92" t="s">
         <v>11</v>
       </c>
-      <c r="G92" t="s">
-        <v>12</v>
-      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3514,13 +3275,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>121</v>
-      </c>
-      <c r="G93" t="s">
-        <v>122</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3540,13 +3299,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>30</v>
-      </c>
-      <c r="G94" t="s">
-        <v>34</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3566,13 +3323,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>121</v>
-      </c>
-      <c r="G95" t="s">
-        <v>122</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3592,13 +3347,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>30</v>
-      </c>
-      <c r="G96" t="s">
-        <v>34</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3618,13 +3371,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>30</v>
-      </c>
-      <c r="G97" t="s">
-        <v>37</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3644,13 +3395,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>121</v>
-      </c>
-      <c r="G98" t="s">
-        <v>122</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3670,13 +3419,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>30</v>
-      </c>
-      <c r="G99" t="s">
-        <v>37</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3696,13 +3443,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>121</v>
-      </c>
-      <c r="G100" t="s">
-        <v>122</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3722,13 +3467,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>30</v>
-      </c>
-      <c r="G101" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3748,13 +3491,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>121</v>
-      </c>
-      <c r="G102" t="s">
-        <v>122</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3776,11 +3517,9 @@
       <c r="F103" t="s">
         <v>11</v>
       </c>
-      <c r="G103" t="s">
-        <v>12</v>
-      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3800,13 +3539,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>134</v>
-      </c>
-      <c r="G104" t="s">
-        <v>135</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3826,13 +3563,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>30</v>
-      </c>
-      <c r="G105" t="s">
-        <v>34</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3852,13 +3587,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>134</v>
-      </c>
-      <c r="G106" t="s">
-        <v>135</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3878,13 +3611,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>30</v>
-      </c>
-      <c r="G107" t="s">
-        <v>34</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3904,13 +3635,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>134</v>
-      </c>
-      <c r="G108" t="s">
-        <v>135</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3930,13 +3659,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>30</v>
-      </c>
-      <c r="G109" t="s">
-        <v>34</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3956,13 +3683,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>134</v>
-      </c>
-      <c r="G110" t="s">
-        <v>135</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3982,13 +3707,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>30</v>
-      </c>
-      <c r="G111" t="s">
-        <v>40</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4008,13 +3731,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>134</v>
-      </c>
-      <c r="G112" t="s">
-        <v>135</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4034,13 +3755,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>30</v>
-      </c>
-      <c r="G113" t="s">
-        <v>40</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4060,13 +3779,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>134</v>
-      </c>
-      <c r="G114" t="s">
-        <v>135</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4088,11 +3805,9 @@
       <c r="F115" t="s">
         <v>11</v>
       </c>
-      <c r="G115" t="s">
-        <v>12</v>
-      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4112,13 +3827,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>148</v>
-      </c>
-      <c r="G116" t="s">
-        <v>149</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4138,13 +3851,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>30</v>
-      </c>
-      <c r="G117" t="s">
-        <v>40</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4164,13 +3875,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>148</v>
-      </c>
-      <c r="G118" t="s">
-        <v>149</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4190,13 +3899,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>30</v>
-      </c>
-      <c r="G119" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4216,13 +3923,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>148</v>
-      </c>
-      <c r="G120" t="s">
-        <v>149</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4242,13 +3947,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>30</v>
-      </c>
-      <c r="G121" t="s">
-        <v>34</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4268,13 +3971,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>148</v>
-      </c>
-      <c r="G122" t="s">
-        <v>149</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4294,13 +3995,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>30</v>
-      </c>
-      <c r="G123" t="s">
-        <v>34</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4320,13 +4019,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>30</v>
-      </c>
-      <c r="G124" t="s">
-        <v>37</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4346,13 +4043,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>148</v>
-      </c>
-      <c r="G125" t="s">
-        <v>149</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4374,11 +4069,9 @@
       <c r="F126" t="s">
         <v>11</v>
       </c>
-      <c r="G126" t="s">
-        <v>12</v>
-      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4398,13 +4091,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>161</v>
-      </c>
-      <c r="G127" t="s">
-        <v>162</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4424,13 +4115,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>30</v>
-      </c>
-      <c r="G128" t="s">
-        <v>34</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4450,13 +4139,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>161</v>
-      </c>
-      <c r="G129" t="s">
-        <v>162</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4476,13 +4163,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>30</v>
-      </c>
-      <c r="G130" t="s">
-        <v>34</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4502,13 +4187,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>161</v>
-      </c>
-      <c r="G131" t="s">
-        <v>162</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4528,13 +4211,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>30</v>
-      </c>
-      <c r="G132" t="s">
-        <v>34</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4554,13 +4235,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>161</v>
-      </c>
-      <c r="G133" t="s">
-        <v>162</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4582,11 +4261,9 @@
       <c r="F134" t="s">
         <v>11</v>
       </c>
-      <c r="G134" t="s">
-        <v>12</v>
-      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4606,13 +4283,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>171</v>
-      </c>
-      <c r="G135" t="s">
-        <v>172</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4632,13 +4307,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>30</v>
-      </c>
-      <c r="G136" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4658,13 +4331,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>171</v>
-      </c>
-      <c r="G137" t="s">
-        <v>172</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4684,13 +4355,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>30</v>
-      </c>
-      <c r="G138" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4710,13 +4379,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>171</v>
-      </c>
-      <c r="G139" t="s">
-        <v>172</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4736,13 +4403,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>30</v>
-      </c>
-      <c r="G140" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4762,13 +4427,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>171</v>
-      </c>
-      <c r="G141" t="s">
-        <v>172</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4790,11 +4453,9 @@
       <c r="F142" t="s">
         <v>11</v>
       </c>
-      <c r="G142" t="s">
-        <v>12</v>
-      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4814,13 +4475,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>181</v>
-      </c>
-      <c r="G143" t="s">
-        <v>182</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4840,13 +4499,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>30</v>
-      </c>
-      <c r="G144" t="s">
-        <v>40</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4866,13 +4523,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>181</v>
-      </c>
-      <c r="G145" t="s">
-        <v>182</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4892,13 +4547,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>30</v>
-      </c>
-      <c r="G146" t="s">
-        <v>40</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4918,13 +4571,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>181</v>
-      </c>
-      <c r="G147" t="s">
-        <v>182</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4944,13 +4595,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>30</v>
-      </c>
-      <c r="G148" t="s">
-        <v>40</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4970,13 +4619,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>181</v>
-      </c>
-      <c r="G149" t="s">
-        <v>182</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4996,13 +4643,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>30</v>
-      </c>
-      <c r="G150" t="s">
-        <v>40</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5022,13 +4667,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>181</v>
-      </c>
-      <c r="G151" t="s">
-        <v>182</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5050,11 +4693,9 @@
       <c r="F152" t="s">
         <v>11</v>
       </c>
-      <c r="G152" t="s">
-        <v>12</v>
-      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5074,13 +4715,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>193</v>
-      </c>
-      <c r="G153" t="s">
-        <v>194</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5100,13 +4739,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>30</v>
-      </c>
-      <c r="G154" t="s">
-        <v>34</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5126,13 +4763,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>193</v>
-      </c>
-      <c r="G155" t="s">
-        <v>194</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5152,13 +4787,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>30</v>
-      </c>
-      <c r="G156" t="s">
-        <v>34</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5178,13 +4811,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>193</v>
-      </c>
-      <c r="G157" t="s">
-        <v>194</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5204,13 +4835,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>30</v>
-      </c>
-      <c r="G158" t="s">
-        <v>34</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5230,13 +4859,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>193</v>
-      </c>
-      <c r="G159" t="s">
-        <v>194</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5258,11 +4885,9 @@
       <c r="F160" t="s">
         <v>11</v>
       </c>
-      <c r="G160" t="s">
-        <v>12</v>
-      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5282,13 +4907,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>203</v>
-      </c>
-      <c r="G161" t="s">
-        <v>204</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5308,13 +4931,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>30</v>
-      </c>
-      <c r="G162" t="s">
-        <v>40</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5334,13 +4955,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>203</v>
-      </c>
-      <c r="G163" t="s">
-        <v>204</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5360,13 +4979,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>30</v>
-      </c>
-      <c r="G164" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5386,13 +5003,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>203</v>
-      </c>
-      <c r="G165" t="s">
-        <v>204</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5412,13 +5027,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>30</v>
-      </c>
-      <c r="G166" t="s">
-        <v>34</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5438,13 +5051,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>30</v>
-      </c>
-      <c r="G167" t="s">
-        <v>37</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5464,13 +5075,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>203</v>
-      </c>
-      <c r="G168" t="s">
-        <v>204</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5490,13 +5099,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>30</v>
-      </c>
-      <c r="G169" t="s">
-        <v>37</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5516,13 +5123,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>203</v>
-      </c>
-      <c r="G170" t="s">
-        <v>204</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5542,13 +5147,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>30</v>
-      </c>
-      <c r="G171" t="s">
-        <v>37</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5568,13 +5171,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>203</v>
-      </c>
-      <c r="G172" t="s">
-        <v>204</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5594,13 +5195,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>30</v>
-      </c>
-      <c r="G173" t="s">
-        <v>37</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>217</v>
+        <v>198</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5620,13 +5219,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>203</v>
-      </c>
-      <c r="G174" t="s">
-        <v>204</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5646,13 +5243,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>30</v>
-      </c>
-      <c r="G175" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5672,13 +5267,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>203</v>
-      </c>
-      <c r="G176" t="s">
-        <v>204</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5698,13 +5291,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>30</v>
-      </c>
-      <c r="G177" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5724,13 +5315,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
+        <v>185</v>
+      </c>
+      <c r="G178" t="s"/>
+      <c r="H178" t="s">
         <v>203</v>
-      </c>
-      <c r="G178" t="s">
-        <v>204</v>
-      </c>
-      <c r="H178" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5750,13 +5339,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>30</v>
-      </c>
-      <c r="G179" t="s">
-        <v>34</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5776,13 +5363,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>203</v>
-      </c>
-      <c r="G180" t="s">
-        <v>204</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5804,11 +5389,9 @@
       <c r="F181" t="s">
         <v>11</v>
       </c>
-      <c r="G181" t="s">
-        <v>12</v>
-      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5828,13 +5411,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>14</v>
-      </c>
-      <c r="G182" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5854,13 +5435,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>30</v>
-      </c>
-      <c r="G183" t="s">
-        <v>37</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5880,13 +5459,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>14</v>
-      </c>
-      <c r="G184" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5906,13 +5483,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>30</v>
-      </c>
-      <c r="G185" t="s">
-        <v>40</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5932,13 +5507,11 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>14</v>
-      </c>
-      <c r="G186" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5958,13 +5531,11 @@
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>30</v>
-      </c>
-      <c r="G187" t="s">
-        <v>40</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5984,13 +5555,11 @@
         <v>10</v>
       </c>
       <c r="F188" t="s">
-        <v>14</v>
-      </c>
-      <c r="G188" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6010,13 +5579,11 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>30</v>
-      </c>
-      <c r="G189" t="s">
-        <v>40</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6036,13 +5603,11 @@
         <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>14</v>
-      </c>
-      <c r="G190" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6064,11 +5629,9 @@
       <c r="F191" t="s">
         <v>11</v>
       </c>
-      <c r="G191" t="s">
-        <v>12</v>
-      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6088,13 +5651,11 @@
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>18</v>
-      </c>
-      <c r="G192" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6114,13 +5675,11 @@
         <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>30</v>
-      </c>
-      <c r="G193" t="s">
-        <v>37</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6140,13 +5699,11 @@
         <v>10</v>
       </c>
       <c r="F194" t="s">
-        <v>18</v>
-      </c>
-      <c r="G194" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6166,13 +5723,11 @@
         <v>10</v>
       </c>
       <c r="F195" t="s">
-        <v>30</v>
-      </c>
-      <c r="G195" t="s">
-        <v>40</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6192,13 +5747,11 @@
         <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>18</v>
-      </c>
-      <c r="G196" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6218,13 +5771,11 @@
         <v>10</v>
       </c>
       <c r="F197" t="s">
-        <v>30</v>
-      </c>
-      <c r="G197" t="s">
-        <v>40</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6244,13 +5795,11 @@
         <v>10</v>
       </c>
       <c r="F198" t="s">
-        <v>18</v>
-      </c>
-      <c r="G198" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6272,11 +5821,9 @@
       <c r="F199" t="s">
         <v>11</v>
       </c>
-      <c r="G199" t="s">
-        <v>12</v>
-      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6296,13 +5843,11 @@
         <v>10</v>
       </c>
       <c r="F200" t="s">
-        <v>14</v>
-      </c>
-      <c r="G200" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6324,11 +5869,9 @@
       <c r="F201" t="s">
         <v>11</v>
       </c>
-      <c r="G201" t="s">
-        <v>12</v>
-      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg99727.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg99727.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="261">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>400646</t>
   </si>
   <si>
+    <t>Fitzpatrick</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Chairman  Fitzpatrick. The Task Force to Investigate Terrorism Financing will come to order. The title of today's task force hearing is, ``Could America Do More? An Examination of U.S. Efforts to Stop the Financing of Terror.''    Without objection, the Chair is authorized to declare a recess of the task force at any time.    Also, without objection, members of the full Financial Services Committee who are not members of the task force may participate in today's hearing for the purpose of questioning the witnesses.    The Chair now recognizes himself for 3 minutes for an opening statement.    As expert witnesses in prior hearings have correctly noted, the threat of new, expansive criminal networks capable of self-funding and financing terror is a very real risk around the globe. From the Middle East to South America to the U.S. financial institutions, the threats posed by an evolving sphere of terror syndicates require a robust response both internationally and domestically. While the United States has significant tools at its disposal to degrade and inhibit terrorist financing and money laundering, it is unclear to what extent such tools have been effectively utilized.    As part of this task force's vital mission, today's hearing will examine the current state of counterterrorist financing efforts within the Federal Government to ensure that they are meeting their intended purpose and, should they not be, to identify areas which need improvement.    Furthermore, it must prepare us to evaluate the degree of cooperation between the various Federal agencies involved in countering terrorist financing and assess whether there should be more involvement between the government and the private sector to increase successful outcomes. Throughout the life of this task force, we have heard from a myriad of experienced professionals who have expressed insight from both the public and the private sectors. There have been several mentions of legislative actions Congress could take to strengthen U.S. anti-money laundering and counterterror finance measures, such as revising the Bank Secrecy Act to allow greater communication and data sharing among banks or amending beneficial ownership and control rules to ensure local and State enforcement personnel have the ability to get information pertinent to any AML/CTF investigation.    Improving the U.S. counterterrorism finance capabilities could be a simple matter of increased funding for agencies which are currently overwhelmed. Since its inception, FinCEN has taken on an increasing number of responsibilities, thanks in part to the ever-evolving field of cyber warfare, payment systems, and the inclusion of policing money services businesses. With the addition of so many responsibilities, isn't it necessary to provide additional resources to ensure effective implementation?    This is a small selection of topics I wish to discuss with our panel today. This task force has clearly sounded the alarm of the threat posed by self-financing terrorist organizations and must ensure every option is considered in the U.S. response to this danger. Today's hearing is an important part of accomplishing the mission of this group in better protecting American lives from increasingly well-funded and financed terror syndicates. I look forward to the testimony of our witnesses and the discussion between our Members.    I now recognize for an opening statement the ranking member of the task force, the gentleman from Massachusetts, Mr. Lynch.</t>
   </si>
   <si>
     <t>400249</t>
   </si>
   <si>
+    <t>Lynch</t>
+  </si>
+  <si>
+    <t>Stephen</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr.  Lynch. Thank you, Mr. Chairman.    I also want to thank Vice Chairman Pittenger for holding today's hearing. And I want to thank our distinguished witnesses for their willingness to help us with our work on this task force. I am pleased with the efforts our task force has made since it was created earlier this year. During our first congressional hearing this past April, we confronted the diversity and scope of terrorist threats which have become more varied and localized since the September 11th attacks. Our subsequent hearings have investigated outstanding challenges related to terrorist financing, including beneficial ownership, cybersecurity threats, the nexus between crime, corruption, and terrorism, and the Iran nuclear deal and the implications that may have on our antiterrorist financing efforts.    At today's fifth and final hearing in this iteration of the task force, we will examine policy proposals that aim to help improve our Nation's efforts to combat terrorist financing. Detecting and disrupting the flow of funding to terrorist groups is essential in our fight against terrorism. And we are all very aware of the threats presented by terrorist organizations, such as the Islamic State and Hezbollah in the Middle East, and Boko Haram and Al-Shabaab in Africa. Without financial resources, these organizations will not be able to fund their attacks, pay their fighters, and otherwise support their operations. Thus, to effectively stop these groups, we must cut off their funding.    One of the ways we can do this is by supporting regional financial intelligence units (FIUs). This is why I am pleased with our witness Scott Modell's recommendations that we take full advantage of the information collected and stored by FIUs. I also agree with Mr. Modell's suggestion that we explore new ways to better analyze and use that information collected by FIUs in order to stop illicit money flows. During overseas codels, I try to make it a point to meet with regional FIUs to get updates on efforts to combat terrorist financing around the world. Witnessing the important work of FIUs around the globe demonstrates the need for the United States to continue to support international government efforts to develop robust legal, regulatory, and operational frameworks to combat terrorist financing and money laundering. It is also crucial to strengthen the relationship between FIUs, particularly with the Financial Crimes Enforcement Network, our FIU, the U.S. financial intelligence unit. This should be done in accordance with the landmark recommendations issued by the Financial Action Task Force, which is an intergovernmental body consisting of over 30 member jurisdictions dedicated to strengthening worldwide antiterrorist financing and anti-money laundering policies. I look forward to hearing from our witnesses so that we can examine these issues further. I yield back the balance of my time.</t>
   </si>
   <si>
@@ -67,6 +82,12 @@
     <t>412551</t>
   </si>
   <si>
+    <t>Pittenger</t>
+  </si>
+  <si>
+    <t>Robert</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr.  Pittenger. Thank you, Mr. Chairman.    And thank you, Mr. Ranking Member, for your hard work and dedication to these issues throughout the efforts of the task force. Over the past five hearings, briefings, and roundtables, we have gained important insight into the threats facing our Nation, how they are funded, and the many obstacles we face in intercepting those funds.    Just last week, the chairman, my friend, Mr. Meeks, and myself had the chance to meet with officials in Europe and the Middle East to further understand these threats and those obstacles. The theme of my discussions was Iran and the $100 billion it will receive as part of this Administration's deal. Preventing those dollars from funding terror should be a major priority. The delegation visited FATF in Paris, Turkey, Qatar, and Kuwait. We got a chance to see firsthand the challenges that they face.    While I oppose this Iran deal, it should be a diplomatic priority for this Administration to reach out to those countries and others in the region to ensure that they utilize their resources, capabilities, and incentives to fully enforce their counterterrorism finance laws within their sovereign borders. But this hearing is on the challenges we face domestically. Over these past few months, we have often heard about information sharing. And increasing the information we have and use will give us a better opportunity to stop the flow of funds to terrorists. Our hearing today will focus on exactly that, the steps we can take to better ensure that we are cutting the funding to terrorists, and protecting the security of America against our enemies.    I look forward to the testimony from the witnesses before us and the opportunity to strengthen our efforts. And I look forward to working with my colleagues on this task force in a bipartisan manner to implement the ideas before us today.    Thank you, Mr. Chairman. I yield back.</t>
   </si>
   <si>
@@ -76,6 +97,12 @@
     <t>412509</t>
   </si>
   <si>
+    <t>Sinema</t>
+  </si>
+  <si>
+    <t>Kyrsten</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms.  Sinema. Thank you, Chairman Fitzpatrick, and Ranking Member Lynch. The title of today's hearing is, ``Could America Do More? An Examination of U.S. Efforts to Stop the Financing of Terror.'' The answer is clearly yes. I appreciate our witnesses' testimony and I agree that the Federal Government must change its approach and mindset to counter the financing of terrorism. My focus throughout these hearings has been on countering ISIL funding. ISIL fights locally and inspires terror internationally. But it is different from other transnational terror organizations. Its economic engagement with the outside world is limited. And it derives most of its funds from areas near or under its control.    This task force has received testimony that the internal sale of oil is a significant source of income. But it is the taxation, extortion, and theft throughout the entire supply chain that funds the organization. ISIL levies taxes and fees at every stage of production, at key roadway crossings, ports of entry, and areas under its control. It replicates this model in other markets, like banking, where it robs and then operates local bank branches, gaining money through the taxation or extortion of the population and businesses it controls. Given the closed nature of the majority of ISIL's revenue streams, how can we do more to counter ISIL's revenue sources? I look forward to hearing more from our witnesses today about how we should restructure our counterfinance operations so we have the flexibility to effectively counter ISIL's largely domestic revenue streams and fight other terrorist organizations with different funding models.    Thank you, Mr. Chairman. I yield back.</t>
   </si>
   <si>
@@ -85,6 +112,12 @@
     <t>412570</t>
   </si>
   <si>
+    <t>Rothfus</t>
+  </si>
+  <si>
+    <t>Keith</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr.  Rothfus. Thank you, Mr. Chairman. It is my pleasure to welcome and to introduce Mr. Dan Larkin from my hometown of Pittsburgh, Pennsylvania. Mr. Larkin served in the FBI for more than 24 years and established the first cyber fusion unit for the Federal Government, enabling government and law enforcement to effectively co-locate with subject matter experts from industry and academia. This unit substantially enhances resource sharing to the mutual benefit of all participants. Private sector partners include numerous financial services organizations, telecommunications, technology, and e-commerce. Law enforcement partners include a growing list of Federal, State, and local agencies, as well as international investigators from more than a dozen countries.    Mr. Larkin also developed one of the first high-tech crime task forces in the United States. This unique collaboration of assets also led to the development of the first national public-private alliance to identify and combat cybercrime. It is known as the National Cyber Forensics and Training Alliance. Mr. Larkin also co-authored the FBI National Cybercrime Strategy in 2002.    Again, it is my pleasure to welcome Mr. Larkin here today. And I am sure that we will all benefit from his experience and expertise on these important issues.</t>
   </si>
   <si>
@@ -94,24 +127,36 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Modell</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr.  Modell. Chairman Fitzpatrick, Ranking Member Lynch, and members of the task force, good morning. Thank you for the opportunity to testify today. Terrorism financing has become one of the most pressing national security challenges. Yet, in my opinion, the plans, programs, and practitioners are falling short of where they need to be. My contention today is simple: many in the U.S. Government know just enough to be dangerous about finance or transnational organized crime but not enough to significantly impact crime or terror organizations.    For the past decade or so, the U.S. Government has attempted to develop a professional cadre of law enforcement agents, civilian and military intelligence officers, analysts, and others to pursue a new field of operations which has been called counter threat finance. Their purpose was to effectively counter the financial and logistical depth and sustain the capacity of our adversaries who are engaged in irregular warfare. It was thought that hitting the finances, financiers, and illicit networks would become an important means of warfare. But progress has been limited.    Looking ahead, it would serve us well to take an agency-by-agency account of what we collectively know about terrorism finance, an audit of each agency's CTF track record and current trajectory, and ways to either add or pare down their respective roles and missions as part of a whole-of-government approach. This should not seek to bring all agencies together all the time. Threat mitigation working groups or interagency task forces and the like are usually stood up with the best of intentions and may last for a while but often end with poor results.    A few of my recommendations today include the following: Number one, we need a detailed and comprehensive starting point for ourselves and for our liaison partners. We need to agree on how to better prosecute a results-dependent intelligence and law enforcement campaign, not just a series of one-off strikes, arrests, or asset recruitments. The way to begin is by building a CTF order of battle that maps key networks on a global scale, along with a tactically flexible and transnational plan of attack.    Number two, I say we need to take the gloves off. I think that intelligence collection, law enforcement actions, and even covert action must take place inside some of the worst financial havens and terrorist-enabling states such as Kuwait, Qatar, and Lebanon. Too many U.S. missions around the world maintain an ultra-cautious posture when it comes to investigations, arrests, and other operational activities inside countries where financial terrorism targets are active.    A prime example is Hezbollah. We too often avoid operations against Hezbollah's illicit financial apparatus inside Lebanon because we don't want to destabilize the Lebanese banking system or embarrass corrupt Lebanese government officials who work alongside Hezbollah.    Number three, we need to develop career professionals who better understand finance and transnational organized crime. To attack prime terror pipelines that run through the international trade and banking system, we need to have more officers who have hands-on expertise to be able to think creatively in this space in order to understand the constantly evolving illicit trade craft and sophistication employed by truly transnational organizations. This requires basic and advanced training in international finance banking and trade, of which there is not nearly enough today.    Number four, I think we need to rebuild the operational capacity of our Treasury attaches, start by taking complete after-action account of OFAC designations on key target sets, starting with Iran. If you want to put Treasury on a war footing, it needs to better understand precisely how our sanctions designations and so forth have affected banks, investment companies, exchange houses, and other financial nodes of terrorist networks, how those entities and individuals have countered, and the degrees to which they have been disrupted, dismantled, or destroyed.    Stronger Treasury force should be engaged in up-close and personal investigations of banks, hawalas, exchange houses, and others that continue to operate even after being designated. The last two things I would suggest are, one, information operations, usually reserved for the military, but it is a capability that I think could be used effectively in the CTF realm. To magnify the impact of CTF law enforcement operations, information operations should use U.S. and local media outlets to expose terrorists and their supporters, educate publics that are largely unaware of how terrorists move money through corrupt financial systems, and warn them of the consequences of abetting terrorists. Information operations can also be used to positively bolster the reputation of foreign police, intel and military efforts, or to negatively embarrass governments, companies, and individual collaborators.    Finally, I would say the Rewards for Justice Program--in my experience, money is probably the single biggest incentive to sources, facilitators, and testifiers who assist U.S. law enforcement investigations and operations or intelligence operations, for that matter. I think we need to think about how to use Rewards for Justice in a much more creative way as a tool to motivate not only individual sources, but also our foreign liaison partners. A coalition of well-intentioned states, which I think we have, that is based on a common aversion to transnational organized crime is good, but it will only go so far. I think we will have a lot more success when it is linked to potential financial reward. Thank you.    [The prepared statement of Mr. Modell can be found on page 52 of the appendix.]</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman  Fitzpatrick. Thank you, Mr. Modell.    Dr. Shelley, you are now recognized for 5 minutes.</t>
   </si>
   <si>
+    <t>Shelley</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms.  Shelley. Thank you. It is a great honor to be here and address this task force. I think we need to broaden our concept away from terrorist financing and focus on the concept of the business of terrorism. Why do I believe this? Terrorism financing looks at what has been done and is being done to fund a terrorist organization. It is reactive, rather than proactive. But terrorist groups function like multinational businesses and are always looking for future opportunities to stay in business. Therefore, the business of terrorism examines more broadly the way terrorists generate funds and solicit personnel for future activity, just as we have seen with ISIS and its sophisticated recruiting schemes. The business of terrorism looks at marketing strategies, targets of opportunity, and other methods that they use. And terrorist financing fails to address the fact that terrorists are acting like businesspeople and need to be countered as business competitors. That is why it is very useful to partner much more with the business community, as I will be talking about.    Almost all terrorism these days is funded by crime, although much of transnational crime remains independent of terrorism. Therefore, we need to stop stovepiping the separate responses to crime and terrorism and to analyze them together and have countermeasures that work in this way. This is being done successfully by the New York and Los Angeles Police Departments, integrating local efforts with Federal efforts. And it needs to be expanded to other jurisdictions. We need to focus more on the drug trade and concentrate not only on the drug trade but concentrate on the smaller scale illicit trade that supports so much terrorism in the United States, Europe, and North Africa. One of the Kouachi brothers responsible for the Charlie Hebdo massacre in Paris traded in counterfeit Nikes and cigarettes. Similar crime is found as crucial support to terrorists by NYPD.    Terrorists use corruption to execute their business activities just as organized crime always has. Therefore, we need to integrate analyses of corruption into crime and terror analyses. Public-private partnerships are key in addressing the business of terrorism. Businesses have insights on how to combat business competitors. And these insights need to be shared with governmental personnel who have less experience with business. And I also give illustrations in my written testimony of concrete examples of successes. And I am sure we will hear more about this in the cyber area. We can hear about this in the energy sector.    And we need to collect intelligence on terrorist financing derived from diverted and counterfeit examples of commodities. But I should also add that I think we need to also be focusing on money laundering by terrorist groups into the real estate sector. We have a hole in the PATRIOT Act in reference to real estate. And I believe it is being exploited not just generally but even in the Washington, D.C. area, talking to real estate agents. So I think that this is an area that needs much more focus.    What do we need to be doing? We need to be focusing on terrorist business rather than just financing, looking at trade and products, targets of opportunity, use of technology, as we are going to hear, and recruitment of personnel. We need to establish working and advisory groups with sectors of the business community whose products are likely targets of terrorists. I know there have been good working relationships with the technology sector, but not as much with those in manufacturing goods, pharmaceuticals, cigarettes, and oil, that need to be integrated into this. As I mentioned previously, we need to be using terrorists or antiterrorist models based on LAPD and NYPD. And we need to develop more controls over crypto currencies such as bitcoin and many other emerging Web-based currencies that are hard to trace and are key to the financing and the trade of terrorists that is going on both in the real and the virtual world. Thank you.    [The prepared statement of Dr. Shelley can be found on page 66 of the appendix.]</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman  Fitzpatrick. Thank you, Dr. Shelley.    Mr. Larkin, you are recognized for 5 minutes.</t>
   </si>
   <si>
+    <t>Larkin</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr.  Larkin. Good morning, Chairman Fitzpatrick, Ranking Member Lynch, and members of the task force. I appear today as a former FBI Unit Chief and the founder of the National Cyber Forensics and Training Alliance, better known as the NCFTA. Thank you for the opportunity to share some personal experiences I have had in my 24-plus years with the FBI in developing models of better cyber threat collaboration between the public and private sectors. I understand the task force is interested in functional models that might foster additional public-private partnerships to assist in the fight against international money laundering and terrorist financing. I believe the NCFTA serves as an excellent model for such collaboration.    Successful public-private collaborations are essential in combatting cyber threats. The vast majority of computer networks belong to the private sector. And, as a result, most of the intelligence on those threats resides with the private sector as well. Effective public-private collaboration also depends on trust amongst the parties, which has to be earned, as well as strong privacy protections and transparency to ensure the trust of the public.    The genesis of the successful NCFTA model actually began in the 1990s after I was reassigned from FBI headquarters to the Pittsburgh division of the FBI. In the late 1990s, it was apparent that business was rapidly moving to the Internet and, not surprisingly, so were the criminals. FBI Pittsburgh had a long history of working multiagency task forces to address a variety of criminal activity. And at this time, the idea was developed to launch a new, high-tech, cyber task force. I initially gained support of the law enforcement community for this task force and also suggested that we include representatives from the CERT Coordination Center, which was established in the 1980s at Carnegie Mellon University in Pittsburgh. Representatives from that organization at that time had become experts in cyber threats. And they were essentially in our backyard.    Ultimately, the relationship between law enforcement and the CERT Coordination Center would prove instrumental to the formation of the NCFTA. But first, we had to overcome some reluctance on the part of CERT Coordination Center members to work with the FBI and other law enforcement. This was largely due to the concerns that information shared with law enforcement regarding potential vulnerabilities might become public. To overcome these concerns, I suggested that we detail an FBI cyber agent to the CERT Coordination Center to essentially serve as a fly on the wall and to offer support for the CERT Coordination Center and their clients. This program demonstrated that the FBI could actually work with the CERT Coordination Center members and help them more fully understand the scope of the threats they are facing and that the CERT team and its clients could actually work cooperatively work with the FBI without negative consequences. This immersion program also encouraged individuals to get to know each other, gain a better understanding of resources that might be shared, and to collaborate.    This environment helped to develop trusted relationships among participants and became an early principle of the NCFTA model. This early success of this immersion program led to a focus group meeting in 1988 with approximately 30 cross-sector organizations that came together to consider embedding resources in a common location in their common fight against international cyber threats. Out of this focus group, a White Paper was developed which summarized the core objectives of a new public-private alliance which eventually became the NCFTA.    These objectives include the continuation of a neutral, meet-in-the-middle environment to foster public-private collaboration, including the sharing of knowledge and expertise among public and private subject matter experts; the identification of joint initiative based primarily on a consensus view of the private sector on priority threats; use of nondisclosure agreements among parties to protect confidential and proprietary information; and training programs to help ensure common understanding of permissible private sector involvement in information sharing, as well as best practices for identifying and combatting cyber threats.    As a result of these efforts and the work of numerous individuals, the NCFTA was officially incorporated in 2002 as a 501(c)(3) nonprofit. Since that time, numerous investigative initiatives have been developed through the NCFTA with cross-sector partners spawning hundreds of investigations, both domestically and foreign. A common thread through many of these investigations has been international organized crime, money laundering, and, in some cases, ties to terrorist financing.    Today, numerous private sector organizations imbed resources at the NCFTA, alongside a growing pool of domestic and international law enforcement. Hundreds of additional subject matter experts connect to the NCFTA through various realtime communications channels.    So, what are some of the key takeaways from the NCFTA both in combatting cybercrime and considering future public-private partnerships? Significant global threats may initially manifest themselves only to the private sector. Their true significance and scope, however, may not be realized until those dots are fully connected through resources like those at the NCFTA. Cybercriminals will enlist many different and creative schemes to generate funds. And efforts to respond must also continue to evolve with the same or more advanced creativity.    The NCFTA leverages existing resources in giving them a better environment in which to perform. From this perspective, it is a very efficient workforce multiplier. Relationships are vital to making the collaboration work. And they can be fragile. Making it personal, knowing your partner's perspectives and needs is essential. And the human capital development aspects of the NCFTA are substantial. Thank you again for the opportunity to address the task force. I am pleased to respond to any questions at the appropriate time.    [The prepared statement of Mr. Larkin can be found on page 44 of the appendix.]</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman  Fitzpatrick. Thank you.    And, finally, Ms. Rosenberg, you are recognized for 5 minutes.</t>
   </si>
   <si>
+    <t>Rosenberg</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms.  Rosenberg. Thank you, Chairman Fitzpatrick, Vice Chairman Pittenger, Ranking Member Lynch, and distinguished members of this task force. I appreciate the opportunity to testify before you today on U.S. efforts to stop the financing of terrorism. The proliferation of terrorist threats and the growing diffusion and autonomy of terrorists cells internationally demands a whole-of-government response. Stemming the flow of terrorist financing is critical to this effort. The most important defenses against terrorist financing are rigorous Know Your Customer (KYC) and customer due diligence (CDD) practices. With robust KYC and CDD measures, financial institutions can detect and freeze terrorist-linked financial flows and suspicious activity.    Financial policymakers, regulators, and law enforcement officials, of course, have responsibility for ensuring that requirements for such safeguards in the U.S. financial system are strong and that they are upheld. They use the suspicious activity reporting by financial institutions, often produced as a result of KYC and CDD practices along with intelligence analysis, to stem terrorist financing and activity. This may occur in the form of Treasury Department sanctions designations, legal enforcement actions against terrorists, and Defense Department targeting of terrorist threats abroad. To close a critical gap in U.S. efforts to combat terrorist financing, policymakers should advance new requirements for tougher CDD practices and disclosure of beneficial ownership information for legal entities.    The Treasury Department is working on a new CDD rule, as I am sure many of you are aware. And the 2016 Federal budget includes new requirements for beneficial ownership information gathering and sharing tied to the corporate formation process. These initiatives should be swiftly and fully advanced as crucial measures to improve sanctions enforcement and combat criminal and terrorist activity.    Additional steps that would further strengthen financial sector resiliency against terrorist financing threats include new measures to extend anti-money laundering and countering the financing of terrorism or CFT requirements to unregulated financial entities, including investment advisers and real estate agents, as was just mentioned, and, as well, to new digital currencies. Congress should take the leading role in setting new policy in these areas.    To address another serious deficiency in U.S. CFT efforts, policymakers should work to remove barriers that prevent the flow of customer and beneficial ownership data across national boundaries. Such barriers make it difficult for global financial institutions to identify and track illicit finance across the jurisdictions in which they operate. These restrictions also make it difficult for government officials to identify and target sanctions evasion or criminal activity to connect the dots. And the restrictions also hinder efforts to identify new nodes in terrorist networks and links between terrorist groups and criminal enterprises or their criminal activities.    To be sure, sharing information related to terrorism threats presents civil liberties, competition, and financial inclusion challenges. Nevertheless, to facilitate effective law enforcement and successfully combat terrorist financing, policymakers must urgently contemplate new strategies for facilitating the flow of financial data across national borders. A good policy goal would be to significantly ease the transfer of beneficial ownership data between banks with correspondent relationships that are in different jurisdictions.    To achieve this, Treasury Department officials and financial services policy leaders in Congress should engage foreign counterparts, advocating for legislative changes, where appropriate, to allow such information sharing. They can also explore the idea of safe harbor frameworks between the United States and foreign financial jurisdictions to create mechanisms, including appropriate safeguards, for cross-border financial data flows. As terrorist threats are global, we rely significantly on the strength of foreign financial systems and the will of our foreign financial regulatory and law enforcement counterparts to combat terrorist financing. Investing in partner capacity building to combat this threat is directly beneficial to our own national interests. Congress should expand current Federal efforts to help foreign partners strengthen KYC and CDD requirements in their own jurisdictions, as well as laws that criminalize the financing of terrorism or support for terrorism. Allocating funds in the current budget to the new counterterrorism partnership fund will help advance these efforts.    Finally, as an additional measure to combat terrorist financing, legislators should set the tone for ensuring that our government aggressively exposes and targets terrorist financing with financial sanctions. This involves careful oversight of the Treasury and State Departments, which have the responsibility for implementing sanctions and, crucially, the appropriation of sufficient resources to these agencies and to the intelligence community to fulfill this important mission. Thank you for the opportunity to testify today. I look forward to answering any questions you may have for me.    [The prepared statement of Ms. Rosenberg can be found on page 57 of the appendix.]</t>
   </si>
   <si>
@@ -286,6 +331,12 @@
     <t>400271</t>
   </si>
   <si>
+    <t>Meeks</t>
+  </si>
+  <si>
+    <t>Gregory</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr.  Meeks. Thank you, Mr. Chairman.    Let me first thank you, Mr. Chairman, for leading a great trip where we did a lot of investigations in talking to individuals, whether it was from France, Turkey, Qatar, or Kuwait. And I know we tried to get into Lebanon, but unfortunately, we couldn't get in there. But we had a good conversation with its prime minister. So I very much appreciate the trip and I gained a lot of knowledge on the travel talking about this very subject matter. I want to first thank you for that. It was very good.    And given that, because one of the things that seemed clear to me on this trip is that the group that is a threat to everybody, whether it is the United States, whether it is Israel, whether it is even Iran and Russia and France, is this group called ISIL or Daesh. And everybody seems to be very much concerned about how they were being funded and how the dollars would go through.    So, to that, let me ask, first, Mr. Modell, because I believe in your writing, you discussed how intelligence collection for law enforcement and covert action needs to take place within countries that, using your words, are the most financial safe havens and terrorism enablers. Now, I was really taken aback to some degree when we were in Kuwait and Qatar, particularly, because they seemed to be very forward with what they were trying to do and what they could not do, or had not been done. A lot of that had to deal with some of the cultural questions, like a lot of people utilize cash as opposed to credit cards or anything else. Cash is harder to trace, et cetera, and a lot of them were making new laws with regards to the charity law because money was being funneled through that. But there also seem to be some concerns culturally, because culturally they bank differently than, say, Westerners have, different things, and that nature.    So my question to you is, how would such actions take place in these areas where they have the potential of destabilizing? When I talk about the Kuwait, for example, the June 26th date, for the first time, they had their own bombing at a mosque. They seem to be very focused on doing what they need to do to try to be very helpful here, but at the same time, they said, we have to move things to give confidence to our people. So how do you balance, what do you see the balance of the two, so that we could make sure we don't destabilize other regions of the area as we try to make sure we prevent them from passing dollars through?</t>
   </si>
   <si>
@@ -304,6 +355,12 @@
     <t>412411</t>
   </si>
   <si>
+    <t>Ross</t>
+  </si>
+  <si>
+    <t>Dennis</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr.  Ross. Thank you, Mr. Chairman. Mr. Chairman, it is my understanding that this is the last meeting of this task force. Is that correct?</t>
   </si>
   <si>
@@ -349,6 +406,12 @@
     <t>400653</t>
   </si>
   <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>Al</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr.  Green. Thank you, Mr. Chairman. I would echo the commentary made by my colleague with reference to the benefits that we have derived from these various hearings, and I salute you and my ranking member for the way you have worked together to help facilitate the free flow of information. Thank you very much.    With reference to information sharing, there are arguments made with reference to technology being a problem, and then there are other arguments that are made with reference to organizational inertia, infrastructure, and culture.    How much of the fusion of information between various agencies is impeded by culture, organizational inertia, and structure within the various entities that should be conversing with each other?    Ms. Shelley, you ventured into this a little bit earlier. Would you care to respond?</t>
   </si>
   <si>
@@ -385,6 +448,12 @@
     <t>412609</t>
   </si>
   <si>
+    <t>Hill</t>
+  </si>
+  <si>
+    <t>French</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr.  Hill. Thank you, Mr. Chairman.    And thank you, Mr. Ranking Member, for your excellent stewardship of this task force.    Dr. Shelley, I would like to begin with you and talk a little bit about this real estate exception to the money laundering statutes that you have referenced. Presuming a buyer has a bank and withdraws money from that bank, and presuming a seller has a bank and deposits the proceeds into that bank, describe kind of more specifically the gap that you have identified that is being exploited. And you even referenced right here in the booming real estate market of the beltway. So could you go into a little bit more detail about that?</t>
   </si>
   <si>
@@ -424,6 +493,12 @@
     <t>412578</t>
   </si>
   <si>
+    <t>Williams</t>
+  </si>
+  <si>
+    <t>Roger</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr.  Williams. Thank you, Mr. Chairman. I, too, would like to thank you and the ranking member for your leadership on this committee.    Over the last few months, this task force has explored an array of topics and received in-depth testimony from witnesses throughout the government and the private sector that has helped members of this task force better understand the challenges we face in dealing with terrorism financing. These challenges are real for me personally--sometimes hit too close to home--because I am a car dealer. Now, I want to start by discussing the topic of money laundering with the witnesses today. We talked a lot about that today, especially the laundering that exists here in the United States. From some of your previous testimony and also earlier when we had other folks here, we heard about legitimate businesses knowingly or unknowingly supporting terrorist organizations who launder money right here in our own backyard.    My first question to you, Ms. Rosenberg, is, in your view, what are the key terrorist financing money laundering threats facing the U.S. international financial systems to date? You have talked a little bit about that. Could you repeat it?</t>
   </si>
   <si>
@@ -460,6 +535,12 @@
     <t>400371</t>
   </si>
   <si>
+    <t>Sherman</t>
+  </si>
+  <si>
+    <t>Brad</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr.  Sherman. Thank you.    Certainly, one source of terrorism is Iran. We are entering into this deal in which we are supposed to waive the sanctions that were enacted to deal with their nuclear program. But in doing so, we are going to be waiving the sanctions that were designed to discourage them from engaging in terrorism.    The most specific example of this is the Iran Sanctions Act, which in its terms, which Congress declared we had three major reasons, only one of which was weapons of mass destruction, and weapons of mass destruction includes nuclear missile and biological and chemical concerns. I will strike ``missile'' from that because the structure was the weapons, not the delivery systems. But still, nuclear was one-third of one-third of Congress' announced reason for adopting the Iran Sanctions Act. Under this deal, it is going to be waived.    What I am concerned with is especially designated nationals list, which is the no-go list for international finance. And you have a lot of countries that are on the list because of their involvement in nuclear activities that we never bothered to put on the list because of their involvement in terrorist activities, for example, Bank Melli, which has been involved with Palestinian Islamic jihad, Hezbollah, Quds force, et cetera.    Dr. Shelley, are you confident that the United States will put Bank Melli on the terrorist list, or are we going to ignore their support for terrorism in the future because they used to be involved in proliferation activities?</t>
   </si>
   <si>
@@ -487,6 +568,12 @@
     <t>412541</t>
   </si>
   <si>
+    <t>Barr</t>
+  </si>
+  <si>
+    <t>Garland</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr.  Barr. Thank you, Mr. Chairman, and Chairman Fitzpatrick, Vice Chairman Pittenger, and Ranking Member Lynch. I also want to join my colleagues in complimenting you all for your leadership in convening this task force and giving the testimony that we have heard here today and the other hearings before this task force. We obviously have many gaps and deficiencies in the way in which our country counters terrorism financing. And I look forward to working with each of you in developing perhaps a legislative package that adopts some of the recommendations made here today and in--from the other witnesses we have heard from in other hearings.    With respect to the proposed Iran nuclear deal, the joint comprehensive plan of action, I wanted to ask Mr. Modell a question about the impact that a finalized deal would have on the existing deficiencies that you testified about. In particular, you testified that terrorism finance has become one of our most pressing national security challenges, yet the plans, programs, and practitioners are falling far short of where they need to be. My question to you, Mr. Modell, is will we fall further behind if this deal is finalized? And, secondly, is there a way to quantify how much further behind will we be if this deal is finalized?    In other words, how much additional pressure will this place on the efforts to counter the financing of terrorism?</t>
   </si>
   <si>
@@ -514,6 +601,9 @@
     <t>412215</t>
   </si>
   <si>
+    <t>Ellison</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr.  Ellison. Thank you, Mr. Chairman, and thank you, Mr. Ranking Member, for this hearing. I also would like to thank all of our panelists who have been so responsive and helpful to our understanding.    My first question is to Ms. Rosenberg. Ms. Rosenberg, on this Iran deal, you did publish an article, for which I want to commend you, and I thought it was well-written. One of the things you said is a successful agreement is by far the best way to reduce Iran's nuclear threat, but for any deal to work, Tehran needs to know that if it cheats, economic pain will turn in full force.    If you believe the deal, what we do have--there is a deal, there is a fair chance that there will remain one, how should we move forward given that we are going to have to monitor whatever--and have--provide oversight to how things are going? If we assume that the people who want to kill the deal are not successful, and that is a fair assumption at this point, what is your assessment on the day after, and what we should be doing?</t>
   </si>
   <si>
@@ -547,6 +637,12 @@
     <t>412399</t>
   </si>
   <si>
+    <t>Schweikert</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr.  Schweikert. Thank you, Mr. Chairman.    Dr. Shelley, first, I want to compliment you, because at least in your testimony, both written and what you have said, you have come closer to anyone in this committee on my fixation, my concern. We seem to be having a discussion that somehow the terrorism financing world is out there using the SWIFT system, and we are seeing the wire transfers and not understanding the scale of the distributive opportunities. When their story is coming from border patrol agents of money moving in diamonds and other types of products, when we are seeing stories of completely informal financing mechanisms, when we are seeing stories that it is money laundering for hire. So today you may be a terrorist; tomorrow you may be a narcotrafficker; next week you may be someone engaging in counterfeit products; and the week after that it is the folks who stole data who are trying to monetize it. And it is becoming a profession out there with its own accountants, with its own systems.    Dr. Shelley, how do I break my brothers and sisters and those in the bureaucracy out of the mindset that we can do this as a Treasury banking regulator and understanding the distributive world that is around us and the perverse professionalism that seems to be going into the movement of bad actors' cash?</t>
   </si>
   <si>
@@ -572,6 +668,12 @@
   </si>
   <si>
     <t>412461</t>
+  </si>
+  <si>
+    <t>Stivers</t>
+  </si>
+  <si>
+    <t>Steve</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr.  Stivers. Thank you, Mr. Chairman.    I would like to commend the chairman for his leadership of this task force and the ranking member as well for your hard work here. And it is unfortunate that this is our last meeting of the task force because I think there is a lot more work to be done.    Ms. Rosenberg, it has already kind of come up a little bit. Mr. Ross talked about this a little bit, but the fact that the Iran deal could give up to $50 billion to Iran immediately, which could then be diverted to terrorism, does that, for you, give us a reason to maybe continue something like this task force, to continue to monitor what is going on out is there?</t>
@@ -1043,7 +1145,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H201"/>
+  <dimension ref="A1:I201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1051,7 +1153,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1073,4805 +1175,5646 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
       <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
       <c r="H7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="G9" t="s">
+        <v>32</v>
+      </c>
       <c r="H9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G13" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G15" t="s">
+        <v>43</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
       <c r="H16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>25</v>
-      </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
       <c r="H18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>25</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G19" t="s">
+        <v>43</v>
+      </c>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
       <c r="H20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>25</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G21" t="s">
+        <v>37</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
       <c r="H22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>25</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G23" t="s">
+        <v>37</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
       <c r="H24" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>25</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
+        <v>36</v>
+      </c>
+      <c r="G25" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
       <c r="H26" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>25</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G27" t="s">
+        <v>43</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
       <c r="H28" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>25</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
       <c r="H30" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>25</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
+        <v>36</v>
+      </c>
+      <c r="G31" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G32" t="s">
+        <v>13</v>
+      </c>
       <c r="H32" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G33" t="s">
+        <v>17</v>
+      </c>
       <c r="H33" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I33" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>25</v>
-      </c>
-      <c r="G34" t="s"/>
-      <c r="H34" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G34" t="s">
+        <v>37</v>
+      </c>
+      <c r="H34" t="s"/>
+      <c r="I34" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G35" t="s">
+        <v>17</v>
+      </c>
       <c r="H35" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I35" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>25</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G36" t="s">
+        <v>37</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>13</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G37" t="s">
+        <v>17</v>
+      </c>
       <c r="H37" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I37" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>25</v>
-      </c>
-      <c r="G38" t="s"/>
-      <c r="H38" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G38" t="s">
+        <v>40</v>
+      </c>
+      <c r="H38" t="s"/>
+      <c r="I38" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G39" t="s">
+        <v>17</v>
+      </c>
       <c r="H39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I39" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>25</v>
-      </c>
-      <c r="G40" t="s"/>
-      <c r="H40" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G40" t="s">
+        <v>43</v>
+      </c>
+      <c r="H40" t="s"/>
+      <c r="I40" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>13</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G41" t="s">
+        <v>17</v>
+      </c>
       <c r="H41" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I41" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>25</v>
-      </c>
-      <c r="G42" t="s"/>
-      <c r="H42" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s"/>
+      <c r="I42" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>13</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G43" t="s">
+        <v>17</v>
+      </c>
       <c r="H43" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I43" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>11</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G44" t="s">
+        <v>13</v>
+      </c>
       <c r="H44" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I44" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>16</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G45" t="s">
+        <v>22</v>
+      </c>
       <c r="H45" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I45" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>25</v>
-      </c>
-      <c r="G46" t="s"/>
-      <c r="H46" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s"/>
+      <c r="I46" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>16</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G47" t="s">
+        <v>22</v>
+      </c>
       <c r="H47" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I47" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>25</v>
-      </c>
-      <c r="G48" t="s"/>
-      <c r="H48" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G48" t="s">
+        <v>37</v>
+      </c>
+      <c r="H48" t="s"/>
+      <c r="I48" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>16</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G49" t="s">
+        <v>22</v>
+      </c>
       <c r="H49" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I49" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>25</v>
-      </c>
-      <c r="G50" t="s"/>
-      <c r="H50" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G50" t="s">
+        <v>40</v>
+      </c>
+      <c r="H50" t="s"/>
+      <c r="I50" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>16</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G51" t="s">
+        <v>22</v>
+      </c>
       <c r="H51" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I51" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>25</v>
-      </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G52" t="s">
+        <v>43</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>16</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G53" t="s">
+        <v>22</v>
+      </c>
       <c r="H53" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I53" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>25</v>
-      </c>
-      <c r="G54" t="s"/>
-      <c r="H54" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s"/>
+      <c r="I54" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>16</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G55" t="s">
+        <v>22</v>
+      </c>
       <c r="H55" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I55" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>11</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G56" t="s">
+        <v>13</v>
+      </c>
       <c r="H56" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I56" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>25</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G57" t="s">
+        <v>40</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>25</v>
-      </c>
-      <c r="G58" t="s"/>
-      <c r="H58" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G58" t="s">
+        <v>40</v>
+      </c>
+      <c r="H58" t="s"/>
+      <c r="I58" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>11</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G59" t="s">
+        <v>13</v>
+      </c>
       <c r="H59" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I59" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>22</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="G60" t="s">
+        <v>32</v>
+      </c>
       <c r="H60" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I60" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>25</v>
-      </c>
-      <c r="G61" t="s"/>
-      <c r="H61" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G61" t="s">
+        <v>43</v>
+      </c>
+      <c r="H61" t="s"/>
+      <c r="I61" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>22</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="G62" t="s">
+        <v>32</v>
+      </c>
       <c r="H62" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I62" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>25</v>
-      </c>
-      <c r="G63" t="s"/>
-      <c r="H63" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G63" t="s">
+        <v>43</v>
+      </c>
+      <c r="H63" t="s"/>
+      <c r="I63" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>22</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="G64" t="s">
+        <v>32</v>
+      </c>
       <c r="H64" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I64" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>25</v>
-      </c>
-      <c r="G65" t="s"/>
-      <c r="H65" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G65" t="s">
+        <v>37</v>
+      </c>
+      <c r="H65" t="s"/>
+      <c r="I65" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>25</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>22</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="G67" t="s">
+        <v>32</v>
+      </c>
       <c r="H67" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I67" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>25</v>
-      </c>
-      <c r="G68" t="s"/>
-      <c r="H68" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s"/>
+      <c r="I68" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>22</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="G69" t="s">
+        <v>32</v>
+      </c>
       <c r="H69" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I69" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>25</v>
-      </c>
-      <c r="G70" t="s"/>
-      <c r="H70" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G70" t="s">
+        <v>37</v>
+      </c>
+      <c r="H70" t="s"/>
+      <c r="I70" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>22</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="G71" t="s">
+        <v>32</v>
+      </c>
       <c r="H71" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I71" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>25</v>
-      </c>
-      <c r="G72" t="s"/>
-      <c r="H72" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G72" t="s">
+        <v>37</v>
+      </c>
+      <c r="H72" t="s"/>
+      <c r="I72" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>11</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G73" t="s">
+        <v>13</v>
+      </c>
       <c r="H73" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I73" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>89</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>104</v>
+      </c>
+      <c r="G74" t="s">
+        <v>105</v>
+      </c>
       <c r="H74" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>106</v>
+      </c>
+      <c r="I74" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>25</v>
-      </c>
-      <c r="G75" t="s"/>
-      <c r="H75" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G75" t="s">
+        <v>37</v>
+      </c>
+      <c r="H75" t="s"/>
+      <c r="I75" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>89</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>104</v>
+      </c>
+      <c r="G76" t="s">
+        <v>105</v>
+      </c>
       <c r="H76" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>106</v>
+      </c>
+      <c r="I76" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>25</v>
-      </c>
-      <c r="G77" t="s"/>
-      <c r="H77" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G77" t="s">
+        <v>43</v>
+      </c>
+      <c r="H77" t="s"/>
+      <c r="I77" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>11</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G78" t="s">
+        <v>13</v>
+      </c>
       <c r="H78" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I78" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>95</v>
-      </c>
-      <c r="G79" t="s"/>
+        <v>112</v>
+      </c>
+      <c r="G79" t="s">
+        <v>113</v>
+      </c>
       <c r="H79" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>114</v>
+      </c>
+      <c r="I79" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>11</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G80" t="s">
+        <v>13</v>
+      </c>
       <c r="H80" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I80" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>95</v>
-      </c>
-      <c r="G81" t="s"/>
+        <v>112</v>
+      </c>
+      <c r="G81" t="s">
+        <v>113</v>
+      </c>
       <c r="H81" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>114</v>
+      </c>
+      <c r="I81" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>11</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G82" t="s">
+        <v>13</v>
+      </c>
       <c r="H82" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I82" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>95</v>
-      </c>
-      <c r="G83" t="s"/>
+        <v>112</v>
+      </c>
+      <c r="G83" t="s">
+        <v>113</v>
+      </c>
       <c r="H83" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>114</v>
+      </c>
+      <c r="I83" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>25</v>
-      </c>
-      <c r="G84" t="s"/>
-      <c r="H84" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s"/>
+      <c r="I84" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>95</v>
-      </c>
-      <c r="G85" t="s"/>
+        <v>112</v>
+      </c>
+      <c r="G85" t="s">
+        <v>113</v>
+      </c>
       <c r="H85" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>114</v>
+      </c>
+      <c r="I85" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>25</v>
-      </c>
-      <c r="G86" t="s"/>
-      <c r="H86" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s"/>
+      <c r="I86" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>95</v>
-      </c>
-      <c r="G87" t="s"/>
+        <v>112</v>
+      </c>
+      <c r="G87" t="s">
+        <v>113</v>
+      </c>
       <c r="H87" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>114</v>
+      </c>
+      <c r="I87" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>25</v>
-      </c>
-      <c r="G88" t="s"/>
-      <c r="H88" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G88" t="s">
+        <v>37</v>
+      </c>
+      <c r="H88" t="s"/>
+      <c r="I88" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>95</v>
-      </c>
-      <c r="G89" t="s"/>
+        <v>112</v>
+      </c>
+      <c r="G89" t="s">
+        <v>113</v>
+      </c>
       <c r="H89" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>114</v>
+      </c>
+      <c r="I89" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>25</v>
-      </c>
-      <c r="G90" t="s"/>
-      <c r="H90" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G90" t="s">
+        <v>37</v>
+      </c>
+      <c r="H90" t="s"/>
+      <c r="I90" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>95</v>
-      </c>
-      <c r="G91" t="s"/>
+        <v>112</v>
+      </c>
+      <c r="G91" t="s">
+        <v>113</v>
+      </c>
       <c r="H91" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>114</v>
+      </c>
+      <c r="I91" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>11</v>
-      </c>
-      <c r="G92" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G92" t="s">
+        <v>13</v>
+      </c>
       <c r="H92" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I92" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>110</v>
-      </c>
-      <c r="G93" t="s"/>
+        <v>129</v>
+      </c>
+      <c r="G93" t="s">
+        <v>130</v>
+      </c>
       <c r="H93" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>131</v>
+      </c>
+      <c r="I93" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>25</v>
-      </c>
-      <c r="G94" t="s"/>
-      <c r="H94" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G94" t="s">
+        <v>40</v>
+      </c>
+      <c r="H94" t="s"/>
+      <c r="I94" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>110</v>
-      </c>
-      <c r="G95" t="s"/>
+        <v>129</v>
+      </c>
+      <c r="G95" t="s">
+        <v>130</v>
+      </c>
       <c r="H95" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>131</v>
+      </c>
+      <c r="I95" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>25</v>
-      </c>
-      <c r="G96" t="s"/>
-      <c r="H96" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G96" t="s">
+        <v>40</v>
+      </c>
+      <c r="H96" t="s"/>
+      <c r="I96" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>25</v>
-      </c>
-      <c r="G97" t="s"/>
-      <c r="H97" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G97" t="s">
+        <v>43</v>
+      </c>
+      <c r="H97" t="s"/>
+      <c r="I97" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>110</v>
-      </c>
-      <c r="G98" t="s"/>
+        <v>129</v>
+      </c>
+      <c r="G98" t="s">
+        <v>130</v>
+      </c>
       <c r="H98" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>131</v>
+      </c>
+      <c r="I98" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>25</v>
-      </c>
-      <c r="G99" t="s"/>
-      <c r="H99" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G99" t="s">
+        <v>43</v>
+      </c>
+      <c r="H99" t="s"/>
+      <c r="I99" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>110</v>
-      </c>
-      <c r="G100" t="s"/>
+        <v>129</v>
+      </c>
+      <c r="G100" t="s">
+        <v>130</v>
+      </c>
       <c r="H100" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>131</v>
+      </c>
+      <c r="I100" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>25</v>
-      </c>
-      <c r="G101" t="s"/>
-      <c r="H101" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G101" t="s">
+        <v>37</v>
+      </c>
+      <c r="H101" t="s"/>
+      <c r="I101" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>110</v>
-      </c>
-      <c r="G102" t="s"/>
+        <v>129</v>
+      </c>
+      <c r="G102" t="s">
+        <v>130</v>
+      </c>
       <c r="H102" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>131</v>
+      </c>
+      <c r="I102" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>11</v>
-      </c>
-      <c r="G103" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G103" t="s">
+        <v>13</v>
+      </c>
       <c r="H103" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I103" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>122</v>
-      </c>
-      <c r="G104" t="s"/>
+        <v>143</v>
+      </c>
+      <c r="G104" t="s">
+        <v>144</v>
+      </c>
       <c r="H104" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>145</v>
+      </c>
+      <c r="I104" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>25</v>
-      </c>
-      <c r="G105" t="s"/>
-      <c r="H105" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G105" t="s">
+        <v>40</v>
+      </c>
+      <c r="H105" t="s"/>
+      <c r="I105" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>122</v>
-      </c>
-      <c r="G106" t="s"/>
+        <v>143</v>
+      </c>
+      <c r="G106" t="s">
+        <v>144</v>
+      </c>
       <c r="H106" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>145</v>
+      </c>
+      <c r="I106" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>25</v>
-      </c>
-      <c r="G107" t="s"/>
-      <c r="H107" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G107" t="s">
+        <v>40</v>
+      </c>
+      <c r="H107" t="s"/>
+      <c r="I107" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>122</v>
-      </c>
-      <c r="G108" t="s"/>
+        <v>143</v>
+      </c>
+      <c r="G108" t="s">
+        <v>144</v>
+      </c>
       <c r="H108" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>145</v>
+      </c>
+      <c r="I108" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>25</v>
-      </c>
-      <c r="G109" t="s"/>
-      <c r="H109" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G109" t="s">
+        <v>40</v>
+      </c>
+      <c r="H109" t="s"/>
+      <c r="I109" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>122</v>
-      </c>
-      <c r="G110" t="s"/>
+        <v>143</v>
+      </c>
+      <c r="G110" t="s">
+        <v>144</v>
+      </c>
       <c r="H110" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>145</v>
+      </c>
+      <c r="I110" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>25</v>
-      </c>
-      <c r="G111" t="s"/>
-      <c r="H111" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G111" t="s">
+        <v>46</v>
+      </c>
+      <c r="H111" t="s"/>
+      <c r="I111" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>122</v>
-      </c>
-      <c r="G112" t="s"/>
+        <v>143</v>
+      </c>
+      <c r="G112" t="s">
+        <v>144</v>
+      </c>
       <c r="H112" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>145</v>
+      </c>
+      <c r="I112" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>25</v>
-      </c>
-      <c r="G113" t="s"/>
-      <c r="H113" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G113" t="s">
+        <v>46</v>
+      </c>
+      <c r="H113" t="s"/>
+      <c r="I113" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>122</v>
-      </c>
-      <c r="G114" t="s"/>
+        <v>143</v>
+      </c>
+      <c r="G114" t="s">
+        <v>144</v>
+      </c>
       <c r="H114" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>145</v>
+      </c>
+      <c r="I114" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>11</v>
-      </c>
-      <c r="G115" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G115" t="s">
+        <v>13</v>
+      </c>
       <c r="H115" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I115" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>135</v>
-      </c>
-      <c r="G116" t="s"/>
+        <v>158</v>
+      </c>
+      <c r="G116" t="s">
+        <v>159</v>
+      </c>
       <c r="H116" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>160</v>
+      </c>
+      <c r="I116" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>25</v>
-      </c>
-      <c r="G117" t="s"/>
-      <c r="H117" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G117" t="s">
+        <v>46</v>
+      </c>
+      <c r="H117" t="s"/>
+      <c r="I117" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>135</v>
-      </c>
-      <c r="G118" t="s"/>
+        <v>158</v>
+      </c>
+      <c r="G118" t="s">
+        <v>159</v>
+      </c>
       <c r="H118" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>160</v>
+      </c>
+      <c r="I118" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>25</v>
-      </c>
-      <c r="G119" t="s"/>
-      <c r="H119" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G119" t="s">
+        <v>37</v>
+      </c>
+      <c r="H119" t="s"/>
+      <c r="I119" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>135</v>
-      </c>
-      <c r="G120" t="s"/>
+        <v>158</v>
+      </c>
+      <c r="G120" t="s">
+        <v>159</v>
+      </c>
       <c r="H120" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>160</v>
+      </c>
+      <c r="I120" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>25</v>
-      </c>
-      <c r="G121" t="s"/>
-      <c r="H121" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G121" t="s">
+        <v>40</v>
+      </c>
+      <c r="H121" t="s"/>
+      <c r="I121" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>135</v>
-      </c>
-      <c r="G122" t="s"/>
+        <v>158</v>
+      </c>
+      <c r="G122" t="s">
+        <v>159</v>
+      </c>
       <c r="H122" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>160</v>
+      </c>
+      <c r="I122" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>25</v>
-      </c>
-      <c r="G123" t="s"/>
-      <c r="H123" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G123" t="s">
+        <v>40</v>
+      </c>
+      <c r="H123" t="s"/>
+      <c r="I123" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>25</v>
-      </c>
-      <c r="G124" t="s"/>
-      <c r="H124" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G124" t="s">
+        <v>43</v>
+      </c>
+      <c r="H124" t="s"/>
+      <c r="I124" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>135</v>
-      </c>
-      <c r="G125" t="s"/>
+        <v>158</v>
+      </c>
+      <c r="G125" t="s">
+        <v>159</v>
+      </c>
       <c r="H125" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>160</v>
+      </c>
+      <c r="I125" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>11</v>
-      </c>
-      <c r="G126" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G126" t="s">
+        <v>13</v>
+      </c>
       <c r="H126" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I126" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>147</v>
-      </c>
-      <c r="G127" t="s"/>
+        <v>172</v>
+      </c>
+      <c r="G127" t="s">
+        <v>173</v>
+      </c>
       <c r="H127" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>174</v>
+      </c>
+      <c r="I127" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>25</v>
-      </c>
-      <c r="G128" t="s"/>
-      <c r="H128" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G128" t="s">
+        <v>40</v>
+      </c>
+      <c r="H128" t="s"/>
+      <c r="I128" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>147</v>
-      </c>
-      <c r="G129" t="s"/>
+        <v>172</v>
+      </c>
+      <c r="G129" t="s">
+        <v>173</v>
+      </c>
       <c r="H129" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>174</v>
+      </c>
+      <c r="I129" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>25</v>
-      </c>
-      <c r="G130" t="s"/>
-      <c r="H130" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G130" t="s">
+        <v>40</v>
+      </c>
+      <c r="H130" t="s"/>
+      <c r="I130" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>147</v>
-      </c>
-      <c r="G131" t="s"/>
+        <v>172</v>
+      </c>
+      <c r="G131" t="s">
+        <v>173</v>
+      </c>
       <c r="H131" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>174</v>
+      </c>
+      <c r="I131" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>25</v>
-      </c>
-      <c r="G132" t="s"/>
-      <c r="H132" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G132" t="s">
+        <v>40</v>
+      </c>
+      <c r="H132" t="s"/>
+      <c r="I132" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>147</v>
-      </c>
-      <c r="G133" t="s"/>
+        <v>172</v>
+      </c>
+      <c r="G133" t="s">
+        <v>173</v>
+      </c>
       <c r="H133" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>174</v>
+      </c>
+      <c r="I133" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>11</v>
-      </c>
-      <c r="G134" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G134" t="s">
+        <v>13</v>
+      </c>
       <c r="H134" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I134" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>156</v>
-      </c>
-      <c r="G135" t="s"/>
+        <v>183</v>
+      </c>
+      <c r="G135" t="s">
+        <v>184</v>
+      </c>
       <c r="H135" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>185</v>
+      </c>
+      <c r="I135" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>25</v>
-      </c>
-      <c r="G136" t="s"/>
-      <c r="H136" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G136" t="s">
+        <v>37</v>
+      </c>
+      <c r="H136" t="s"/>
+      <c r="I136" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>156</v>
-      </c>
-      <c r="G137" t="s"/>
+        <v>183</v>
+      </c>
+      <c r="G137" t="s">
+        <v>184</v>
+      </c>
       <c r="H137" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>185</v>
+      </c>
+      <c r="I137" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>25</v>
-      </c>
-      <c r="G138" t="s"/>
-      <c r="H138" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G138" t="s">
+        <v>37</v>
+      </c>
+      <c r="H138" t="s"/>
+      <c r="I138" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>156</v>
-      </c>
-      <c r="G139" t="s"/>
+        <v>183</v>
+      </c>
+      <c r="G139" t="s">
+        <v>184</v>
+      </c>
       <c r="H139" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>185</v>
+      </c>
+      <c r="I139" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>25</v>
-      </c>
-      <c r="G140" t="s"/>
-      <c r="H140" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G140" t="s">
+        <v>37</v>
+      </c>
+      <c r="H140" t="s"/>
+      <c r="I140" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>156</v>
-      </c>
-      <c r="G141" t="s"/>
+        <v>183</v>
+      </c>
+      <c r="G141" t="s">
+        <v>184</v>
+      </c>
       <c r="H141" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>185</v>
+      </c>
+      <c r="I141" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>11</v>
-      </c>
-      <c r="G142" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G142" t="s">
+        <v>13</v>
+      </c>
       <c r="H142" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I142" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>165</v>
-      </c>
-      <c r="G143" t="s"/>
+        <v>194</v>
+      </c>
+      <c r="G143" t="s">
+        <v>195</v>
+      </c>
       <c r="H143" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I143" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>25</v>
-      </c>
-      <c r="G144" t="s"/>
-      <c r="H144" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G144" t="s">
+        <v>46</v>
+      </c>
+      <c r="H144" t="s"/>
+      <c r="I144" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>165</v>
-      </c>
-      <c r="G145" t="s"/>
+        <v>194</v>
+      </c>
+      <c r="G145" t="s">
+        <v>195</v>
+      </c>
       <c r="H145" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I145" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F146" t="s">
-        <v>25</v>
-      </c>
-      <c r="G146" t="s"/>
-      <c r="H146" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G146" t="s">
+        <v>46</v>
+      </c>
+      <c r="H146" t="s"/>
+      <c r="I146" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>165</v>
-      </c>
-      <c r="G147" t="s"/>
+        <v>194</v>
+      </c>
+      <c r="G147" t="s">
+        <v>195</v>
+      </c>
       <c r="H147" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I147" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>25</v>
-      </c>
-      <c r="G148" t="s"/>
-      <c r="H148" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G148" t="s">
+        <v>46</v>
+      </c>
+      <c r="H148" t="s"/>
+      <c r="I148" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F149" t="s">
-        <v>165</v>
-      </c>
-      <c r="G149" t="s"/>
+        <v>194</v>
+      </c>
+      <c r="G149" t="s">
+        <v>195</v>
+      </c>
       <c r="H149" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I149" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F150" t="s">
-        <v>25</v>
-      </c>
-      <c r="G150" t="s"/>
-      <c r="H150" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G150" t="s">
+        <v>46</v>
+      </c>
+      <c r="H150" t="s"/>
+      <c r="I150" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F151" t="s">
-        <v>165</v>
-      </c>
-      <c r="G151" t="s"/>
+        <v>194</v>
+      </c>
+      <c r="G151" t="s">
+        <v>195</v>
+      </c>
       <c r="H151" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I151" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F152" t="s">
-        <v>11</v>
-      </c>
-      <c r="G152" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G152" t="s">
+        <v>13</v>
+      </c>
       <c r="H152" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I152" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F153" t="s">
-        <v>176</v>
-      </c>
-      <c r="G153" t="s"/>
+        <v>206</v>
+      </c>
+      <c r="G153" t="s">
+        <v>207</v>
+      </c>
       <c r="H153" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>208</v>
+      </c>
+      <c r="I153" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F154" t="s">
-        <v>25</v>
-      </c>
-      <c r="G154" t="s"/>
-      <c r="H154" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G154" t="s">
+        <v>40</v>
+      </c>
+      <c r="H154" t="s"/>
+      <c r="I154" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F155" t="s">
-        <v>176</v>
-      </c>
-      <c r="G155" t="s"/>
+        <v>206</v>
+      </c>
+      <c r="G155" t="s">
+        <v>207</v>
+      </c>
       <c r="H155" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>208</v>
+      </c>
+      <c r="I155" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F156" t="s">
-        <v>25</v>
-      </c>
-      <c r="G156" t="s"/>
-      <c r="H156" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G156" t="s">
+        <v>40</v>
+      </c>
+      <c r="H156" t="s"/>
+      <c r="I156" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F157" t="s">
-        <v>176</v>
-      </c>
-      <c r="G157" t="s"/>
+        <v>206</v>
+      </c>
+      <c r="G157" t="s">
+        <v>207</v>
+      </c>
       <c r="H157" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>208</v>
+      </c>
+      <c r="I157" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F158" t="s">
-        <v>25</v>
-      </c>
-      <c r="G158" t="s"/>
-      <c r="H158" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G158" t="s">
+        <v>40</v>
+      </c>
+      <c r="H158" t="s"/>
+      <c r="I158" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F159" t="s">
-        <v>176</v>
-      </c>
-      <c r="G159" t="s"/>
+        <v>206</v>
+      </c>
+      <c r="G159" t="s">
+        <v>207</v>
+      </c>
       <c r="H159" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>208</v>
+      </c>
+      <c r="I159" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F160" t="s">
-        <v>11</v>
-      </c>
-      <c r="G160" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G160" t="s">
+        <v>13</v>
+      </c>
       <c r="H160" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I160" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F161" t="s">
-        <v>185</v>
-      </c>
-      <c r="G161" t="s"/>
+        <v>217</v>
+      </c>
+      <c r="G161" t="s">
+        <v>218</v>
+      </c>
       <c r="H161" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>219</v>
+      </c>
+      <c r="I161" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F162" t="s">
-        <v>25</v>
-      </c>
-      <c r="G162" t="s"/>
-      <c r="H162" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G162" t="s">
+        <v>46</v>
+      </c>
+      <c r="H162" t="s"/>
+      <c r="I162" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F163" t="s">
-        <v>185</v>
-      </c>
-      <c r="G163" t="s"/>
+        <v>217</v>
+      </c>
+      <c r="G163" t="s">
+        <v>218</v>
+      </c>
       <c r="H163" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>219</v>
+      </c>
+      <c r="I163" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F164" t="s">
-        <v>25</v>
-      </c>
-      <c r="G164" t="s"/>
-      <c r="H164" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G164" t="s">
+        <v>37</v>
+      </c>
+      <c r="H164" t="s"/>
+      <c r="I164" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F165" t="s">
-        <v>185</v>
-      </c>
-      <c r="G165" t="s"/>
+        <v>217</v>
+      </c>
+      <c r="G165" t="s">
+        <v>218</v>
+      </c>
       <c r="H165" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>219</v>
+      </c>
+      <c r="I165" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F166" t="s">
-        <v>25</v>
-      </c>
-      <c r="G166" t="s"/>
-      <c r="H166" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G166" t="s">
+        <v>40</v>
+      </c>
+      <c r="H166" t="s"/>
+      <c r="I166" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F167" t="s">
-        <v>25</v>
-      </c>
-      <c r="G167" t="s"/>
-      <c r="H167" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G167" t="s">
+        <v>43</v>
+      </c>
+      <c r="H167" t="s"/>
+      <c r="I167" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F168" t="s">
-        <v>185</v>
-      </c>
-      <c r="G168" t="s"/>
+        <v>217</v>
+      </c>
+      <c r="G168" t="s">
+        <v>218</v>
+      </c>
       <c r="H168" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>219</v>
+      </c>
+      <c r="I168" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F169" t="s">
-        <v>25</v>
-      </c>
-      <c r="G169" t="s"/>
-      <c r="H169" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G169" t="s">
+        <v>43</v>
+      </c>
+      <c r="H169" t="s"/>
+      <c r="I169" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F170" t="s">
-        <v>185</v>
-      </c>
-      <c r="G170" t="s"/>
+        <v>217</v>
+      </c>
+      <c r="G170" t="s">
+        <v>218</v>
+      </c>
       <c r="H170" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+        <v>219</v>
+      </c>
+      <c r="I170" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F171" t="s">
-        <v>25</v>
-      </c>
-      <c r="G171" t="s"/>
-      <c r="H171" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G171" t="s">
+        <v>43</v>
+      </c>
+      <c r="H171" t="s"/>
+      <c r="I171" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F172" t="s">
-        <v>185</v>
-      </c>
-      <c r="G172" t="s"/>
+        <v>217</v>
+      </c>
+      <c r="G172" t="s">
+        <v>218</v>
+      </c>
       <c r="H172" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
+        <v>219</v>
+      </c>
+      <c r="I172" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F173" t="s">
-        <v>25</v>
-      </c>
-      <c r="G173" t="s"/>
-      <c r="H173" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G173" t="s">
+        <v>43</v>
+      </c>
+      <c r="H173" t="s"/>
+      <c r="I173" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F174" t="s">
-        <v>185</v>
-      </c>
-      <c r="G174" t="s"/>
+        <v>217</v>
+      </c>
+      <c r="G174" t="s">
+        <v>218</v>
+      </c>
       <c r="H174" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+        <v>219</v>
+      </c>
+      <c r="I174" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F175" t="s">
-        <v>25</v>
-      </c>
-      <c r="G175" t="s"/>
-      <c r="H175" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G175" t="s">
+        <v>37</v>
+      </c>
+      <c r="H175" t="s"/>
+      <c r="I175" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F176" t="s">
-        <v>185</v>
-      </c>
-      <c r="G176" t="s"/>
+        <v>217</v>
+      </c>
+      <c r="G176" t="s">
+        <v>218</v>
+      </c>
       <c r="H176" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
+        <v>219</v>
+      </c>
+      <c r="I176" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F177" t="s">
-        <v>25</v>
-      </c>
-      <c r="G177" t="s"/>
-      <c r="H177" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G177" t="s">
+        <v>37</v>
+      </c>
+      <c r="H177" t="s"/>
+      <c r="I177" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F178" t="s">
-        <v>185</v>
-      </c>
-      <c r="G178" t="s"/>
+        <v>217</v>
+      </c>
+      <c r="G178" t="s">
+        <v>218</v>
+      </c>
       <c r="H178" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
+        <v>219</v>
+      </c>
+      <c r="I178" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F179" t="s">
-        <v>25</v>
-      </c>
-      <c r="G179" t="s"/>
-      <c r="H179" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G179" t="s">
+        <v>40</v>
+      </c>
+      <c r="H179" t="s"/>
+      <c r="I179" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F180" t="s">
-        <v>185</v>
-      </c>
-      <c r="G180" t="s"/>
+        <v>217</v>
+      </c>
+      <c r="G180" t="s">
+        <v>218</v>
+      </c>
       <c r="H180" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
+        <v>219</v>
+      </c>
+      <c r="I180" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F181" t="s">
-        <v>11</v>
-      </c>
-      <c r="G181" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G181" t="s">
+        <v>13</v>
+      </c>
       <c r="H181" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I181" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F182" t="s">
-        <v>13</v>
-      </c>
-      <c r="G182" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G182" t="s">
+        <v>17</v>
+      </c>
       <c r="H182" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I182" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F183" t="s">
-        <v>25</v>
-      </c>
-      <c r="G183" t="s"/>
-      <c r="H183" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G183" t="s">
+        <v>43</v>
+      </c>
+      <c r="H183" t="s"/>
+      <c r="I183" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F184" t="s">
-        <v>13</v>
-      </c>
-      <c r="G184" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G184" t="s">
+        <v>17</v>
+      </c>
       <c r="H184" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I184" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F185" t="s">
-        <v>25</v>
-      </c>
-      <c r="G185" t="s"/>
-      <c r="H185" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G185" t="s">
+        <v>46</v>
+      </c>
+      <c r="H185" t="s"/>
+      <c r="I185" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F186" t="s">
-        <v>13</v>
-      </c>
-      <c r="G186" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G186" t="s">
+        <v>17</v>
+      </c>
       <c r="H186" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I186" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C187" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E187" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F187" t="s">
-        <v>25</v>
-      </c>
-      <c r="G187" t="s"/>
-      <c r="H187" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G187" t="s">
+        <v>46</v>
+      </c>
+      <c r="H187" t="s"/>
+      <c r="I187" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C188" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D188" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E188" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F188" t="s">
-        <v>13</v>
-      </c>
-      <c r="G188" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G188" t="s">
+        <v>17</v>
+      </c>
       <c r="H188" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I188" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C189" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D189" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E189" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F189" t="s">
-        <v>25</v>
-      </c>
-      <c r="G189" t="s"/>
-      <c r="H189" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G189" t="s">
+        <v>46</v>
+      </c>
+      <c r="H189" t="s"/>
+      <c r="I189" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C190" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D190" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E190" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F190" t="s">
-        <v>13</v>
-      </c>
-      <c r="G190" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G190" t="s">
+        <v>17</v>
+      </c>
       <c r="H190" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I190" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C191" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D191" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E191" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F191" t="s">
-        <v>11</v>
-      </c>
-      <c r="G191" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G191" t="s">
+        <v>13</v>
+      </c>
       <c r="H191" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I191" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C192" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D192" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E192" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F192" t="s">
-        <v>16</v>
-      </c>
-      <c r="G192" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G192" t="s">
+        <v>22</v>
+      </c>
       <c r="H192" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I192" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C193" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D193" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E193" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F193" t="s">
-        <v>25</v>
-      </c>
-      <c r="G193" t="s"/>
-      <c r="H193" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G193" t="s">
+        <v>43</v>
+      </c>
+      <c r="H193" t="s"/>
+      <c r="I193" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C194" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D194" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E194" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F194" t="s">
-        <v>16</v>
-      </c>
-      <c r="G194" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G194" t="s">
+        <v>22</v>
+      </c>
       <c r="H194" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I194" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C195" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D195" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E195" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F195" t="s">
-        <v>25</v>
-      </c>
-      <c r="G195" t="s"/>
-      <c r="H195" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G195" t="s">
+        <v>46</v>
+      </c>
+      <c r="H195" t="s"/>
+      <c r="I195" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C196" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D196" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E196" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F196" t="s">
-        <v>16</v>
-      </c>
-      <c r="G196" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G196" t="s">
+        <v>22</v>
+      </c>
       <c r="H196" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I196" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C197" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D197" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E197" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F197" t="s">
-        <v>25</v>
-      </c>
-      <c r="G197" t="s"/>
-      <c r="H197" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="G197" t="s">
+        <v>46</v>
+      </c>
+      <c r="H197" t="s"/>
+      <c r="I197" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
       <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C198" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D198" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E198" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F198" t="s">
-        <v>16</v>
-      </c>
-      <c r="G198" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G198" t="s">
+        <v>22</v>
+      </c>
       <c r="H198" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I198" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
       <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C199" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D199" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E199" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F199" t="s">
-        <v>11</v>
-      </c>
-      <c r="G199" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G199" t="s">
+        <v>13</v>
+      </c>
       <c r="H199" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I199" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
       <c r="A200" s="1" t="n">
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C200" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D200" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E200" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F200" t="s">
-        <v>13</v>
-      </c>
-      <c r="G200" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G200" t="s">
+        <v>17</v>
+      </c>
       <c r="H200" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I200" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
       <c r="A201" s="1" t="n">
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C201" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D201" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E201" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F201" t="s">
-        <v>11</v>
-      </c>
-      <c r="G201" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G201" t="s">
+        <v>13</v>
+      </c>
       <c r="H201" t="s">
-        <v>226</v>
+        <v>14</v>
+      </c>
+      <c r="I201" t="s">
+        <v>260</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg99727.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg99727.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="263">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -53,6 +56,9 @@
   </si>
   <si>
     <t>400646</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Fitzpatrick</t>
@@ -1145,7 +1151,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I201"/>
+  <dimension ref="A1:J201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1153,7 +1159,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1178,5643 +1184,6084 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G7" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="J7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="J9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
       <c r="G12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>36</v>
-      </c>
-      <c r="G13" t="s">
-        <v>40</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
       <c r="G14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" t="s">
-        <v>43</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>45</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>36</v>
-      </c>
-      <c r="G17" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>48</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19" t="s">
-        <v>43</v>
-      </c>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
+        <v>45</v>
+      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I20" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
-      </c>
-      <c r="G21" t="s">
-        <v>37</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
+        <v>39</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I22" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>36</v>
-      </c>
-      <c r="G23" t="s">
-        <v>37</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>39</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I24" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>36</v>
-      </c>
-      <c r="G25" t="s">
-        <v>40</v>
-      </c>
-      <c r="H25" t="s"/>
-      <c r="I25" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
+        <v>42</v>
+      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I26" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>36</v>
-      </c>
-      <c r="G27" t="s">
-        <v>43</v>
-      </c>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
+        <v>45</v>
+      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>36</v>
-      </c>
-      <c r="G29" t="s">
-        <v>46</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>48</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I30" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>36</v>
-      </c>
-      <c r="G31" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
+        <v>48</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I32" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J32" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G33" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H33" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I33" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>36</v>
-      </c>
-      <c r="G34" t="s">
-        <v>37</v>
-      </c>
-      <c r="H34" t="s"/>
-      <c r="I34" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G34" t="s"/>
+      <c r="H34" t="s">
+        <v>39</v>
+      </c>
+      <c r="I34" t="s"/>
+      <c r="J34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G35" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H35" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I35" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J35" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>36</v>
-      </c>
-      <c r="G36" t="s">
-        <v>37</v>
-      </c>
-      <c r="H36" t="s"/>
-      <c r="I36" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
+        <v>39</v>
+      </c>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G37" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H37" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J37" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>36</v>
-      </c>
-      <c r="G38" t="s">
-        <v>40</v>
-      </c>
-      <c r="H38" t="s"/>
-      <c r="I38" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G38" t="s"/>
+      <c r="H38" t="s">
+        <v>42</v>
+      </c>
+      <c r="I38" t="s"/>
+      <c r="J38" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G39" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H39" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I39" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J39" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>36</v>
-      </c>
-      <c r="G40" t="s">
-        <v>43</v>
-      </c>
-      <c r="H40" t="s"/>
-      <c r="I40" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s">
+        <v>45</v>
+      </c>
+      <c r="I40" t="s"/>
+      <c r="J40" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G41" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H41" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I41" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J41" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>36</v>
-      </c>
-      <c r="G42" t="s">
-        <v>46</v>
-      </c>
-      <c r="H42" t="s"/>
-      <c r="I42" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
+        <v>48</v>
+      </c>
+      <c r="I42" t="s"/>
+      <c r="J42" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G43" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H43" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I43" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J43" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G44" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H44" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I44" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J44" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G45" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H45" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I45" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J45" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>36</v>
-      </c>
-      <c r="G46" t="s">
-        <v>46</v>
-      </c>
-      <c r="H46" t="s"/>
-      <c r="I46" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s">
+        <v>48</v>
+      </c>
+      <c r="I46" t="s"/>
+      <c r="J46" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G47" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H47" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I47" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J47" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>36</v>
-      </c>
-      <c r="G48" t="s">
-        <v>37</v>
-      </c>
-      <c r="H48" t="s"/>
-      <c r="I48" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G48" t="s"/>
+      <c r="H48" t="s">
+        <v>39</v>
+      </c>
+      <c r="I48" t="s"/>
+      <c r="J48" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G49" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H49" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I49" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J49" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>36</v>
-      </c>
-      <c r="G50" t="s">
-        <v>40</v>
-      </c>
-      <c r="H50" t="s"/>
-      <c r="I50" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
+        <v>42</v>
+      </c>
+      <c r="I50" t="s"/>
+      <c r="J50" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G51" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H51" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I51" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J51" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>36</v>
-      </c>
-      <c r="G52" t="s">
-        <v>43</v>
-      </c>
-      <c r="H52" t="s"/>
-      <c r="I52" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
+        <v>45</v>
+      </c>
+      <c r="I52" t="s"/>
+      <c r="J52" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G53" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H53" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I53" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J53" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>36</v>
-      </c>
-      <c r="G54" t="s">
-        <v>46</v>
-      </c>
-      <c r="H54" t="s"/>
-      <c r="I54" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G54" t="s"/>
+      <c r="H54" t="s">
+        <v>48</v>
+      </c>
+      <c r="I54" t="s"/>
+      <c r="J54" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G55" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H55" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I55" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J55" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G56" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H56" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I56" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J56" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>36</v>
-      </c>
-      <c r="G57" t="s">
-        <v>40</v>
-      </c>
-      <c r="H57" t="s"/>
-      <c r="I57" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
+        <v>42</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>36</v>
-      </c>
-      <c r="G58" t="s">
-        <v>40</v>
-      </c>
-      <c r="H58" t="s"/>
-      <c r="I58" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G58" t="s"/>
+      <c r="H58" t="s">
+        <v>42</v>
+      </c>
+      <c r="I58" t="s"/>
+      <c r="J58" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G59" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H59" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I59" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J59" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G60" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="H60" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I60" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="J60" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>36</v>
-      </c>
-      <c r="G61" t="s">
-        <v>43</v>
-      </c>
-      <c r="H61" t="s"/>
-      <c r="I61" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G61" t="s"/>
+      <c r="H61" t="s">
+        <v>45</v>
+      </c>
+      <c r="I61" t="s"/>
+      <c r="J61" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G62" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="H62" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I62" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="J62" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>36</v>
-      </c>
-      <c r="G63" t="s">
-        <v>43</v>
-      </c>
-      <c r="H63" t="s"/>
-      <c r="I63" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G63" t="s"/>
+      <c r="H63" t="s">
+        <v>45</v>
+      </c>
+      <c r="I63" t="s"/>
+      <c r="J63" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G64" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="H64" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I64" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="J64" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>36</v>
-      </c>
-      <c r="G65" t="s">
-        <v>37</v>
-      </c>
-      <c r="H65" t="s"/>
-      <c r="I65" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G65" t="s"/>
+      <c r="H65" t="s">
+        <v>39</v>
+      </c>
+      <c r="I65" t="s"/>
+      <c r="J65" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>36</v>
-      </c>
-      <c r="G66" t="s">
-        <v>46</v>
-      </c>
-      <c r="H66" t="s"/>
-      <c r="I66" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
+        <v>48</v>
+      </c>
+      <c r="I66" t="s"/>
+      <c r="J66" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G67" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="H67" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I67" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="J67" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>36</v>
-      </c>
-      <c r="G68" t="s">
-        <v>46</v>
-      </c>
-      <c r="H68" t="s"/>
-      <c r="I68" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G68" t="s"/>
+      <c r="H68" t="s">
+        <v>48</v>
+      </c>
+      <c r="I68" t="s"/>
+      <c r="J68" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G69" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="H69" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I69" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="J69" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>36</v>
-      </c>
-      <c r="G70" t="s">
-        <v>37</v>
-      </c>
-      <c r="H70" t="s"/>
-      <c r="I70" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G70" t="s"/>
+      <c r="H70" t="s">
+        <v>39</v>
+      </c>
+      <c r="I70" t="s"/>
+      <c r="J70" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G71" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="H71" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I71" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="J71" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>36</v>
-      </c>
-      <c r="G72" t="s">
-        <v>37</v>
-      </c>
-      <c r="H72" t="s"/>
-      <c r="I72" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s">
+        <v>39</v>
+      </c>
+      <c r="I72" t="s"/>
+      <c r="J72" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G73" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H73" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I73" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J73" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G74" t="s">
-        <v>105</v>
+        <v>14</v>
       </c>
       <c r="H74" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I74" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>108</v>
+      </c>
+      <c r="J74" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>36</v>
-      </c>
-      <c r="G75" t="s">
-        <v>37</v>
-      </c>
-      <c r="H75" t="s"/>
-      <c r="I75" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G75" t="s"/>
+      <c r="H75" t="s">
+        <v>39</v>
+      </c>
+      <c r="I75" t="s"/>
+      <c r="J75" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G76" t="s">
-        <v>105</v>
+        <v>14</v>
       </c>
       <c r="H76" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I76" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>108</v>
+      </c>
+      <c r="J76" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>36</v>
-      </c>
-      <c r="G77" t="s">
-        <v>43</v>
-      </c>
-      <c r="H77" t="s"/>
-      <c r="I77" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
+        <v>45</v>
+      </c>
+      <c r="I77" t="s"/>
+      <c r="J77" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G78" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H78" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I78" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J78" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G79" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="H79" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I79" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>116</v>
+      </c>
+      <c r="J79" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G80" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H80" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I80" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J80" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G81" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="H81" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I81" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>116</v>
+      </c>
+      <c r="J81" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G82" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H82" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I82" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J82" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G83" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="H83" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I83" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>116</v>
+      </c>
+      <c r="J83" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>36</v>
-      </c>
-      <c r="G84" t="s">
-        <v>46</v>
-      </c>
-      <c r="H84" t="s"/>
-      <c r="I84" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G84" t="s"/>
+      <c r="H84" t="s">
+        <v>48</v>
+      </c>
+      <c r="I84" t="s"/>
+      <c r="J84" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G85" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="H85" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I85" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>116</v>
+      </c>
+      <c r="J85" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>36</v>
-      </c>
-      <c r="G86" t="s">
-        <v>46</v>
-      </c>
-      <c r="H86" t="s"/>
-      <c r="I86" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G86" t="s"/>
+      <c r="H86" t="s">
+        <v>48</v>
+      </c>
+      <c r="I86" t="s"/>
+      <c r="J86" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G87" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="H87" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I87" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>116</v>
+      </c>
+      <c r="J87" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>36</v>
-      </c>
-      <c r="G88" t="s">
-        <v>37</v>
-      </c>
-      <c r="H88" t="s"/>
-      <c r="I88" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G88" t="s"/>
+      <c r="H88" t="s">
+        <v>39</v>
+      </c>
+      <c r="I88" t="s"/>
+      <c r="J88" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G89" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="H89" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I89" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>116</v>
+      </c>
+      <c r="J89" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>36</v>
-      </c>
-      <c r="G90" t="s">
-        <v>37</v>
-      </c>
-      <c r="H90" t="s"/>
-      <c r="I90" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G90" t="s"/>
+      <c r="H90" t="s">
+        <v>39</v>
+      </c>
+      <c r="I90" t="s"/>
+      <c r="J90" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G91" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="H91" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I91" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>116</v>
+      </c>
+      <c r="J91" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G92" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H92" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I92" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J92" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G93" t="s">
-        <v>130</v>
+        <v>14</v>
       </c>
       <c r="H93" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I93" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>133</v>
+      </c>
+      <c r="J93" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>36</v>
-      </c>
-      <c r="G94" t="s">
-        <v>40</v>
-      </c>
-      <c r="H94" t="s"/>
-      <c r="I94" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G94" t="s"/>
+      <c r="H94" t="s">
+        <v>42</v>
+      </c>
+      <c r="I94" t="s"/>
+      <c r="J94" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G95" t="s">
-        <v>130</v>
+        <v>14</v>
       </c>
       <c r="H95" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I95" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>133</v>
+      </c>
+      <c r="J95" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>36</v>
-      </c>
-      <c r="G96" t="s">
-        <v>40</v>
-      </c>
-      <c r="H96" t="s"/>
-      <c r="I96" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G96" t="s"/>
+      <c r="H96" t="s">
+        <v>42</v>
+      </c>
+      <c r="I96" t="s"/>
+      <c r="J96" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>36</v>
-      </c>
-      <c r="G97" t="s">
-        <v>43</v>
-      </c>
-      <c r="H97" t="s"/>
-      <c r="I97" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G97" t="s"/>
+      <c r="H97" t="s">
+        <v>45</v>
+      </c>
+      <c r="I97" t="s"/>
+      <c r="J97" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G98" t="s">
-        <v>130</v>
+        <v>14</v>
       </c>
       <c r="H98" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I98" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>133</v>
+      </c>
+      <c r="J98" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>36</v>
-      </c>
-      <c r="G99" t="s">
-        <v>43</v>
-      </c>
-      <c r="H99" t="s"/>
-      <c r="I99" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G99" t="s"/>
+      <c r="H99" t="s">
+        <v>45</v>
+      </c>
+      <c r="I99" t="s"/>
+      <c r="J99" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G100" t="s">
-        <v>130</v>
+        <v>14</v>
       </c>
       <c r="H100" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I100" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>133</v>
+      </c>
+      <c r="J100" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>36</v>
-      </c>
-      <c r="G101" t="s">
-        <v>37</v>
-      </c>
-      <c r="H101" t="s"/>
-      <c r="I101" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G101" t="s"/>
+      <c r="H101" t="s">
+        <v>39</v>
+      </c>
+      <c r="I101" t="s"/>
+      <c r="J101" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G102" t="s">
-        <v>130</v>
+        <v>14</v>
       </c>
       <c r="H102" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I102" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>133</v>
+      </c>
+      <c r="J102" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G103" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H103" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I103" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J103" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G104" t="s">
-        <v>144</v>
+        <v>14</v>
       </c>
       <c r="H104" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I104" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>147</v>
+      </c>
+      <c r="J104" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>36</v>
-      </c>
-      <c r="G105" t="s">
-        <v>40</v>
-      </c>
-      <c r="H105" t="s"/>
-      <c r="I105" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G105" t="s"/>
+      <c r="H105" t="s">
+        <v>42</v>
+      </c>
+      <c r="I105" t="s"/>
+      <c r="J105" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G106" t="s">
-        <v>144</v>
+        <v>14</v>
       </c>
       <c r="H106" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I106" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>147</v>
+      </c>
+      <c r="J106" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>36</v>
-      </c>
-      <c r="G107" t="s">
-        <v>40</v>
-      </c>
-      <c r="H107" t="s"/>
-      <c r="I107" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G107" t="s"/>
+      <c r="H107" t="s">
+        <v>42</v>
+      </c>
+      <c r="I107" t="s"/>
+      <c r="J107" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G108" t="s">
-        <v>144</v>
+        <v>14</v>
       </c>
       <c r="H108" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I108" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>147</v>
+      </c>
+      <c r="J108" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>36</v>
-      </c>
-      <c r="G109" t="s">
-        <v>40</v>
-      </c>
-      <c r="H109" t="s"/>
-      <c r="I109" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G109" t="s"/>
+      <c r="H109" t="s">
+        <v>42</v>
+      </c>
+      <c r="I109" t="s"/>
+      <c r="J109" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G110" t="s">
-        <v>144</v>
+        <v>14</v>
       </c>
       <c r="H110" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I110" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>147</v>
+      </c>
+      <c r="J110" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>36</v>
-      </c>
-      <c r="G111" t="s">
-        <v>46</v>
-      </c>
-      <c r="H111" t="s"/>
-      <c r="I111" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G111" t="s"/>
+      <c r="H111" t="s">
+        <v>48</v>
+      </c>
+      <c r="I111" t="s"/>
+      <c r="J111" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G112" t="s">
-        <v>144</v>
+        <v>14</v>
       </c>
       <c r="H112" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I112" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>147</v>
+      </c>
+      <c r="J112" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>36</v>
-      </c>
-      <c r="G113" t="s">
-        <v>46</v>
-      </c>
-      <c r="H113" t="s"/>
-      <c r="I113" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G113" t="s"/>
+      <c r="H113" t="s">
+        <v>48</v>
+      </c>
+      <c r="I113" t="s"/>
+      <c r="J113" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G114" t="s">
-        <v>144</v>
+        <v>14</v>
       </c>
       <c r="H114" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I114" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>147</v>
+      </c>
+      <c r="J114" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G115" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H115" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I115" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J115" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G116" t="s">
-        <v>159</v>
+        <v>14</v>
       </c>
       <c r="H116" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I116" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>162</v>
+      </c>
+      <c r="J116" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>36</v>
-      </c>
-      <c r="G117" t="s">
-        <v>46</v>
-      </c>
-      <c r="H117" t="s"/>
-      <c r="I117" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G117" t="s"/>
+      <c r="H117" t="s">
+        <v>48</v>
+      </c>
+      <c r="I117" t="s"/>
+      <c r="J117" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G118" t="s">
-        <v>159</v>
+        <v>14</v>
       </c>
       <c r="H118" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I118" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>162</v>
+      </c>
+      <c r="J118" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>36</v>
-      </c>
-      <c r="G119" t="s">
-        <v>37</v>
-      </c>
-      <c r="H119" t="s"/>
-      <c r="I119" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G119" t="s"/>
+      <c r="H119" t="s">
+        <v>39</v>
+      </c>
+      <c r="I119" t="s"/>
+      <c r="J119" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G120" t="s">
-        <v>159</v>
+        <v>14</v>
       </c>
       <c r="H120" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I120" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>162</v>
+      </c>
+      <c r="J120" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>36</v>
-      </c>
-      <c r="G121" t="s">
-        <v>40</v>
-      </c>
-      <c r="H121" t="s"/>
-      <c r="I121" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G121" t="s"/>
+      <c r="H121" t="s">
+        <v>42</v>
+      </c>
+      <c r="I121" t="s"/>
+      <c r="J121" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G122" t="s">
-        <v>159</v>
+        <v>14</v>
       </c>
       <c r="H122" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I122" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>162</v>
+      </c>
+      <c r="J122" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>36</v>
-      </c>
-      <c r="G123" t="s">
-        <v>40</v>
-      </c>
-      <c r="H123" t="s"/>
-      <c r="I123" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G123" t="s"/>
+      <c r="H123" t="s">
+        <v>42</v>
+      </c>
+      <c r="I123" t="s"/>
+      <c r="J123" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>36</v>
-      </c>
-      <c r="G124" t="s">
-        <v>43</v>
-      </c>
-      <c r="H124" t="s"/>
-      <c r="I124" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G124" t="s"/>
+      <c r="H124" t="s">
+        <v>45</v>
+      </c>
+      <c r="I124" t="s"/>
+      <c r="J124" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G125" t="s">
-        <v>159</v>
+        <v>14</v>
       </c>
       <c r="H125" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I125" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>162</v>
+      </c>
+      <c r="J125" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G126" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H126" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I126" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J126" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G127" t="s">
-        <v>173</v>
+        <v>14</v>
       </c>
       <c r="H127" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="I127" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>176</v>
+      </c>
+      <c r="J127" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>36</v>
-      </c>
-      <c r="G128" t="s">
-        <v>40</v>
-      </c>
-      <c r="H128" t="s"/>
-      <c r="I128" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G128" t="s"/>
+      <c r="H128" t="s">
+        <v>42</v>
+      </c>
+      <c r="I128" t="s"/>
+      <c r="J128" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G129" t="s">
-        <v>173</v>
+        <v>14</v>
       </c>
       <c r="H129" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="I129" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>176</v>
+      </c>
+      <c r="J129" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>36</v>
-      </c>
-      <c r="G130" t="s">
-        <v>40</v>
-      </c>
-      <c r="H130" t="s"/>
-      <c r="I130" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G130" t="s"/>
+      <c r="H130" t="s">
+        <v>42</v>
+      </c>
+      <c r="I130" t="s"/>
+      <c r="J130" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G131" t="s">
-        <v>173</v>
+        <v>14</v>
       </c>
       <c r="H131" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="I131" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>176</v>
+      </c>
+      <c r="J131" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>36</v>
-      </c>
-      <c r="G132" t="s">
-        <v>40</v>
-      </c>
-      <c r="H132" t="s"/>
-      <c r="I132" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G132" t="s"/>
+      <c r="H132" t="s">
+        <v>42</v>
+      </c>
+      <c r="I132" t="s"/>
+      <c r="J132" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G133" t="s">
-        <v>173</v>
+        <v>14</v>
       </c>
       <c r="H133" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="I133" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>176</v>
+      </c>
+      <c r="J133" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G134" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H134" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I134" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J134" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G135" t="s">
-        <v>184</v>
+        <v>14</v>
       </c>
       <c r="H135" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I135" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>187</v>
+      </c>
+      <c r="J135" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F136" t="s">
-        <v>36</v>
-      </c>
-      <c r="G136" t="s">
-        <v>37</v>
-      </c>
-      <c r="H136" t="s"/>
-      <c r="I136" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G136" t="s"/>
+      <c r="H136" t="s">
+        <v>39</v>
+      </c>
+      <c r="I136" t="s"/>
+      <c r="J136" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G137" t="s">
-        <v>184</v>
+        <v>14</v>
       </c>
       <c r="H137" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I137" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>187</v>
+      </c>
+      <c r="J137" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F138" t="s">
-        <v>36</v>
-      </c>
-      <c r="G138" t="s">
-        <v>37</v>
-      </c>
-      <c r="H138" t="s"/>
-      <c r="I138" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G138" t="s"/>
+      <c r="H138" t="s">
+        <v>39</v>
+      </c>
+      <c r="I138" t="s"/>
+      <c r="J138" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F139" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G139" t="s">
-        <v>184</v>
+        <v>14</v>
       </c>
       <c r="H139" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I139" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>187</v>
+      </c>
+      <c r="J139" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E140" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F140" t="s">
-        <v>36</v>
-      </c>
-      <c r="G140" t="s">
-        <v>37</v>
-      </c>
-      <c r="H140" t="s"/>
-      <c r="I140" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G140" t="s"/>
+      <c r="H140" t="s">
+        <v>39</v>
+      </c>
+      <c r="I140" t="s"/>
+      <c r="J140" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E141" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F141" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G141" t="s">
-        <v>184</v>
+        <v>14</v>
       </c>
       <c r="H141" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I141" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>187</v>
+      </c>
+      <c r="J141" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F142" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G142" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H142" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I142" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J142" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E143" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F143" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G143" t="s">
-        <v>195</v>
+        <v>14</v>
       </c>
       <c r="H143" t="s">
-        <v>33</v>
+        <v>197</v>
       </c>
       <c r="I143" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="J143" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E144" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F144" t="s">
-        <v>36</v>
-      </c>
-      <c r="G144" t="s">
-        <v>46</v>
-      </c>
-      <c r="H144" t="s"/>
-      <c r="I144" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G144" t="s"/>
+      <c r="H144" t="s">
+        <v>48</v>
+      </c>
+      <c r="I144" t="s"/>
+      <c r="J144" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E145" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F145" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G145" t="s">
-        <v>195</v>
+        <v>14</v>
       </c>
       <c r="H145" t="s">
-        <v>33</v>
+        <v>197</v>
       </c>
       <c r="I145" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="J145" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E146" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F146" t="s">
-        <v>36</v>
-      </c>
-      <c r="G146" t="s">
-        <v>46</v>
-      </c>
-      <c r="H146" t="s"/>
-      <c r="I146" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G146" t="s"/>
+      <c r="H146" t="s">
+        <v>48</v>
+      </c>
+      <c r="I146" t="s"/>
+      <c r="J146" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E147" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F147" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G147" t="s">
-        <v>195</v>
+        <v>14</v>
       </c>
       <c r="H147" t="s">
-        <v>33</v>
+        <v>197</v>
       </c>
       <c r="I147" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="J147" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E148" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F148" t="s">
-        <v>36</v>
-      </c>
-      <c r="G148" t="s">
-        <v>46</v>
-      </c>
-      <c r="H148" t="s"/>
-      <c r="I148" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G148" t="s"/>
+      <c r="H148" t="s">
+        <v>48</v>
+      </c>
+      <c r="I148" t="s"/>
+      <c r="J148" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E149" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F149" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G149" t="s">
-        <v>195</v>
+        <v>14</v>
       </c>
       <c r="H149" t="s">
-        <v>33</v>
+        <v>197</v>
       </c>
       <c r="I149" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="J149" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E150" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F150" t="s">
-        <v>36</v>
-      </c>
-      <c r="G150" t="s">
-        <v>46</v>
-      </c>
-      <c r="H150" t="s"/>
-      <c r="I150" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G150" t="s"/>
+      <c r="H150" t="s">
+        <v>48</v>
+      </c>
+      <c r="I150" t="s"/>
+      <c r="J150" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E151" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F151" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G151" t="s">
-        <v>195</v>
+        <v>14</v>
       </c>
       <c r="H151" t="s">
-        <v>33</v>
+        <v>197</v>
       </c>
       <c r="I151" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="J151" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E152" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F152" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G152" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H152" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I152" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J152" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E153" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F153" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G153" t="s">
-        <v>207</v>
+        <v>14</v>
       </c>
       <c r="H153" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I153" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+        <v>210</v>
+      </c>
+      <c r="J153" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E154" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F154" t="s">
-        <v>36</v>
-      </c>
-      <c r="G154" t="s">
-        <v>40</v>
-      </c>
-      <c r="H154" t="s"/>
-      <c r="I154" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G154" t="s"/>
+      <c r="H154" t="s">
+        <v>42</v>
+      </c>
+      <c r="I154" t="s"/>
+      <c r="J154" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E155" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F155" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G155" t="s">
-        <v>207</v>
+        <v>14</v>
       </c>
       <c r="H155" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I155" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
+        <v>210</v>
+      </c>
+      <c r="J155" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E156" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F156" t="s">
-        <v>36</v>
-      </c>
-      <c r="G156" t="s">
-        <v>40</v>
-      </c>
-      <c r="H156" t="s"/>
-      <c r="I156" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G156" t="s"/>
+      <c r="H156" t="s">
+        <v>42</v>
+      </c>
+      <c r="I156" t="s"/>
+      <c r="J156" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E157" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F157" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G157" t="s">
-        <v>207</v>
+        <v>14</v>
       </c>
       <c r="H157" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I157" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
+        <v>210</v>
+      </c>
+      <c r="J157" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E158" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F158" t="s">
-        <v>36</v>
-      </c>
-      <c r="G158" t="s">
-        <v>40</v>
-      </c>
-      <c r="H158" t="s"/>
-      <c r="I158" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G158" t="s"/>
+      <c r="H158" t="s">
+        <v>42</v>
+      </c>
+      <c r="I158" t="s"/>
+      <c r="J158" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E159" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F159" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G159" t="s">
-        <v>207</v>
+        <v>14</v>
       </c>
       <c r="H159" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I159" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9">
+        <v>210</v>
+      </c>
+      <c r="J159" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E160" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F160" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G160" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H160" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I160" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J160" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E161" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F161" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G161" t="s">
-        <v>218</v>
+        <v>14</v>
       </c>
       <c r="H161" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I161" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9">
+        <v>221</v>
+      </c>
+      <c r="J161" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E162" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F162" t="s">
-        <v>36</v>
-      </c>
-      <c r="G162" t="s">
-        <v>46</v>
-      </c>
-      <c r="H162" t="s"/>
-      <c r="I162" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G162" t="s"/>
+      <c r="H162" t="s">
+        <v>48</v>
+      </c>
+      <c r="I162" t="s"/>
+      <c r="J162" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E163" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F163" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G163" t="s">
-        <v>218</v>
+        <v>14</v>
       </c>
       <c r="H163" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I163" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9">
+        <v>221</v>
+      </c>
+      <c r="J163" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E164" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F164" t="s">
-        <v>36</v>
-      </c>
-      <c r="G164" t="s">
-        <v>37</v>
-      </c>
-      <c r="H164" t="s"/>
-      <c r="I164" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G164" t="s"/>
+      <c r="H164" t="s">
+        <v>39</v>
+      </c>
+      <c r="I164" t="s"/>
+      <c r="J164" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E165" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F165" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G165" t="s">
-        <v>218</v>
+        <v>14</v>
       </c>
       <c r="H165" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I165" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9">
+        <v>221</v>
+      </c>
+      <c r="J165" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E166" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F166" t="s">
-        <v>36</v>
-      </c>
-      <c r="G166" t="s">
-        <v>40</v>
-      </c>
-      <c r="H166" t="s"/>
-      <c r="I166" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G166" t="s"/>
+      <c r="H166" t="s">
+        <v>42</v>
+      </c>
+      <c r="I166" t="s"/>
+      <c r="J166" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E167" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F167" t="s">
-        <v>36</v>
-      </c>
-      <c r="G167" t="s">
-        <v>43</v>
-      </c>
-      <c r="H167" t="s"/>
-      <c r="I167" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G167" t="s"/>
+      <c r="H167" t="s">
+        <v>45</v>
+      </c>
+      <c r="I167" t="s"/>
+      <c r="J167" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E168" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F168" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G168" t="s">
-        <v>218</v>
+        <v>14</v>
       </c>
       <c r="H168" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I168" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9">
+        <v>221</v>
+      </c>
+      <c r="J168" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E169" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F169" t="s">
-        <v>36</v>
-      </c>
-      <c r="G169" t="s">
-        <v>43</v>
-      </c>
-      <c r="H169" t="s"/>
-      <c r="I169" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G169" t="s"/>
+      <c r="H169" t="s">
+        <v>45</v>
+      </c>
+      <c r="I169" t="s"/>
+      <c r="J169" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E170" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F170" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G170" t="s">
-        <v>218</v>
+        <v>14</v>
       </c>
       <c r="H170" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I170" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9">
+        <v>221</v>
+      </c>
+      <c r="J170" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E171" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F171" t="s">
-        <v>36</v>
-      </c>
-      <c r="G171" t="s">
-        <v>43</v>
-      </c>
-      <c r="H171" t="s"/>
-      <c r="I171" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G171" t="s"/>
+      <c r="H171" t="s">
+        <v>45</v>
+      </c>
+      <c r="I171" t="s"/>
+      <c r="J171" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E172" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F172" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G172" t="s">
-        <v>218</v>
+        <v>14</v>
       </c>
       <c r="H172" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I172" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9">
+        <v>221</v>
+      </c>
+      <c r="J172" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E173" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F173" t="s">
-        <v>36</v>
-      </c>
-      <c r="G173" t="s">
-        <v>43</v>
-      </c>
-      <c r="H173" t="s"/>
-      <c r="I173" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G173" t="s"/>
+      <c r="H173" t="s">
+        <v>45</v>
+      </c>
+      <c r="I173" t="s"/>
+      <c r="J173" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E174" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F174" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G174" t="s">
-        <v>218</v>
+        <v>14</v>
       </c>
       <c r="H174" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I174" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9">
+        <v>221</v>
+      </c>
+      <c r="J174" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E175" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F175" t="s">
-        <v>36</v>
-      </c>
-      <c r="G175" t="s">
-        <v>37</v>
-      </c>
-      <c r="H175" t="s"/>
-      <c r="I175" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G175" t="s"/>
+      <c r="H175" t="s">
+        <v>39</v>
+      </c>
+      <c r="I175" t="s"/>
+      <c r="J175" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E176" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F176" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G176" t="s">
-        <v>218</v>
+        <v>14</v>
       </c>
       <c r="H176" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I176" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9">
+        <v>221</v>
+      </c>
+      <c r="J176" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E177" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F177" t="s">
-        <v>36</v>
-      </c>
-      <c r="G177" t="s">
-        <v>37</v>
-      </c>
-      <c r="H177" t="s"/>
-      <c r="I177" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G177" t="s"/>
+      <c r="H177" t="s">
+        <v>39</v>
+      </c>
+      <c r="I177" t="s"/>
+      <c r="J177" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E178" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F178" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G178" t="s">
-        <v>218</v>
+        <v>14</v>
       </c>
       <c r="H178" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I178" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9">
+        <v>221</v>
+      </c>
+      <c r="J178" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E179" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F179" t="s">
-        <v>36</v>
-      </c>
-      <c r="G179" t="s">
-        <v>40</v>
-      </c>
-      <c r="H179" t="s"/>
-      <c r="I179" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G179" t="s"/>
+      <c r="H179" t="s">
+        <v>42</v>
+      </c>
+      <c r="I179" t="s"/>
+      <c r="J179" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E180" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F180" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G180" t="s">
-        <v>218</v>
+        <v>14</v>
       </c>
       <c r="H180" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I180" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9">
+        <v>221</v>
+      </c>
+      <c r="J180" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E181" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F181" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G181" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H181" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I181" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J181" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E182" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F182" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G182" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H182" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I182" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J182" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E183" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F183" t="s">
-        <v>36</v>
-      </c>
-      <c r="G183" t="s">
-        <v>43</v>
-      </c>
-      <c r="H183" t="s"/>
-      <c r="I183" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G183" t="s"/>
+      <c r="H183" t="s">
+        <v>45</v>
+      </c>
+      <c r="I183" t="s"/>
+      <c r="J183" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E184" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F184" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G184" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H184" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I184" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J184" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E185" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F185" t="s">
-        <v>36</v>
-      </c>
-      <c r="G185" t="s">
-        <v>46</v>
-      </c>
-      <c r="H185" t="s"/>
-      <c r="I185" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G185" t="s"/>
+      <c r="H185" t="s">
+        <v>48</v>
+      </c>
+      <c r="I185" t="s"/>
+      <c r="J185" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E186" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F186" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G186" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H186" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I186" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J186" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D187" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E187" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F187" t="s">
-        <v>36</v>
-      </c>
-      <c r="G187" t="s">
-        <v>46</v>
-      </c>
-      <c r="H187" t="s"/>
-      <c r="I187" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G187" t="s"/>
+      <c r="H187" t="s">
+        <v>48</v>
+      </c>
+      <c r="I187" t="s"/>
+      <c r="J187" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C188" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D188" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E188" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F188" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G188" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H188" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I188" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J188" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C189" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D189" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E189" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F189" t="s">
-        <v>36</v>
-      </c>
-      <c r="G189" t="s">
-        <v>46</v>
-      </c>
-      <c r="H189" t="s"/>
-      <c r="I189" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G189" t="s"/>
+      <c r="H189" t="s">
+        <v>48</v>
+      </c>
+      <c r="I189" t="s"/>
+      <c r="J189" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C190" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D190" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E190" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F190" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G190" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H190" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I190" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J190" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C191" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D191" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E191" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F191" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G191" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H191" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I191" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J191" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C192" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D192" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E192" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F192" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G192" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H192" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I192" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J192" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C193" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D193" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E193" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F193" t="s">
-        <v>36</v>
-      </c>
-      <c r="G193" t="s">
-        <v>43</v>
-      </c>
-      <c r="H193" t="s"/>
-      <c r="I193" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G193" t="s"/>
+      <c r="H193" t="s">
+        <v>45</v>
+      </c>
+      <c r="I193" t="s"/>
+      <c r="J193" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C194" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D194" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E194" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F194" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G194" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H194" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I194" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J194" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C195" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D195" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E195" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F195" t="s">
-        <v>36</v>
-      </c>
-      <c r="G195" t="s">
-        <v>46</v>
-      </c>
-      <c r="H195" t="s"/>
-      <c r="I195" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G195" t="s"/>
+      <c r="H195" t="s">
+        <v>48</v>
+      </c>
+      <c r="I195" t="s"/>
+      <c r="J195" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10">
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C196" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D196" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E196" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F196" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G196" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H196" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I196" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J196" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10">
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C197" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D197" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E197" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F197" t="s">
-        <v>36</v>
-      </c>
-      <c r="G197" t="s">
-        <v>46</v>
-      </c>
-      <c r="H197" t="s"/>
-      <c r="I197" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G197" t="s"/>
+      <c r="H197" t="s">
+        <v>48</v>
+      </c>
+      <c r="I197" t="s"/>
+      <c r="J197" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10">
       <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C198" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D198" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E198" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F198" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G198" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H198" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I198" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J198" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10">
       <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C199" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D199" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E199" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F199" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G199" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H199" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I199" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J199" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10">
       <c r="A200" s="1" t="n">
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C200" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D200" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E200" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F200" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G200" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H200" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I200" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J200" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10">
       <c r="A201" s="1" t="n">
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C201" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D201" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E201" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F201" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G201" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H201" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I201" t="s">
-        <v>260</v>
+        <v>16</v>
+      </c>
+      <c r="J201" t="s">
+        <v>262</v>
       </c>
     </row>
   </sheetData>
